--- a/LeaderboardsStorage/CurrentCodeRankingLeaderboard.xlsx
+++ b/LeaderboardsStorage/CurrentCodeRankingLeaderboard.xlsx
@@ -6152,1141 +6152,1141 @@
     <t>16.63%</t>
   </si>
   <si>
+    <t>21r01a05a5</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05a5</t>
+  </si>
+  <si>
+    <t>muddasaniramya</t>
+  </si>
+  <si>
+    <t>ramyamuddasani</t>
+  </si>
+  <si>
+    <t>16.39%</t>
+  </si>
+  <si>
+    <t>21r01a7324</t>
+  </si>
+  <si>
+    <t>r01a7324</t>
+  </si>
+  <si>
+    <t>21r01ajyys</t>
+  </si>
+  <si>
+    <t>16.35%</t>
+  </si>
+  <si>
+    <t>21r01a7225</t>
+  </si>
+  <si>
+    <t>anonymou99wv</t>
+  </si>
+  <si>
+    <t>anilgoud</t>
+  </si>
+  <si>
+    <t>anil66</t>
+  </si>
+  <si>
+    <t>16.27%</t>
+  </si>
+  <si>
+    <t>21r01a7237</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a7237</t>
+  </si>
+  <si>
+    <t>arunreddy26</t>
+  </si>
+  <si>
+    <t>16.19%</t>
+  </si>
+  <si>
+    <t>21r01a0402</t>
+  </si>
+  <si>
+    <t>harneeth45</t>
+  </si>
+  <si>
+    <t>@21r01a0402</t>
+  </si>
+  <si>
+    <t>16.17%</t>
+  </si>
+  <si>
+    <t>21r01a0567</t>
+  </si>
+  <si>
+    <t>21r01abk04</t>
+  </si>
+  <si>
+    <t>saiteja567</t>
+  </si>
+  <si>
+    <t>16.13%</t>
+  </si>
+  <si>
+    <t>21r01a04d2</t>
+  </si>
+  <si>
+    <t>akshith4d2</t>
+  </si>
+  <si>
+    <t>16.12%</t>
+  </si>
+  <si>
+    <t>21r01a6780</t>
+  </si>
+  <si>
+    <t>22r05a0404</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a0404</t>
+  </si>
+  <si>
+    <t>chandu404</t>
+  </si>
+  <si>
+    <t>@22r05a0404</t>
+  </si>
+  <si>
+    <t>16.03%</t>
+  </si>
+  <si>
+    <t>21r01a04m1</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a04m1</t>
+  </si>
+  <si>
+    <t>shalini76</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>21r01a6613</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6613</t>
+  </si>
+  <si>
+    <t>21r01a98ql</t>
+  </si>
+  <si>
+    <t>sheershitha_77</t>
+  </si>
+  <si>
+    <t>21r01a66f5</t>
+  </si>
+  <si>
+    <t>21r01am2b8</t>
+  </si>
+  <si>
+    <t>15.99%</t>
+  </si>
+  <si>
+    <t>21r01a6675</t>
+  </si>
+  <si>
+    <t>21r01ae7gl</t>
+  </si>
+  <si>
+    <t>varsha_146</t>
+  </si>
+  <si>
+    <t>15.91%</t>
+  </si>
+  <si>
+    <t>21r01a05l6</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a05l6</t>
+  </si>
+  <si>
+    <t>ranjith_20</t>
+  </si>
+  <si>
+    <t>15.89%</t>
+  </si>
+  <si>
+    <t>21r01a0492</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a0492</t>
+  </si>
+  <si>
+    <t>21r01amicz</t>
+  </si>
+  <si>
+    <t>kube21r01a0492</t>
+  </si>
+  <si>
+    <t>15.85%</t>
+  </si>
+  <si>
+    <t>22r05a7202</t>
+  </si>
+  <si>
+    <t>cmrit25-22r05a7202</t>
+  </si>
+  <si>
+    <t>22r05a7202@cmritonline.ac.in</t>
+  </si>
+  <si>
+    <t>kanakalaxmi</t>
+  </si>
+  <si>
+    <t>15.84%</t>
+  </si>
+  <si>
+    <t>21r01a0575</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a0575</t>
+  </si>
+  <si>
+    <t>21r01aauhx</t>
+  </si>
+  <si>
+    <t>chakri26</t>
+  </si>
+  <si>
+    <t>15.81%</t>
+  </si>
+  <si>
+    <t>21r01a7224</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a7224</t>
+  </si>
+  <si>
+    <t>21r01arg58</t>
+  </si>
+  <si>
+    <t>nikitha7224</t>
+  </si>
+  <si>
+    <t>@21r01a7224</t>
+  </si>
+  <si>
+    <t>15.8%</t>
+  </si>
+  <si>
+    <t>22r05a0411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmrit25_22r05a0411	</t>
+  </si>
+  <si>
+    <t>15.77%</t>
+  </si>
+  <si>
+    <t>22r05a7203</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a7203</t>
+  </si>
+  <si>
+    <t>@22r05a7203</t>
+  </si>
+  <si>
+    <t>shravansanjay</t>
+  </si>
+  <si>
+    <t>15.73%</t>
+  </si>
+  <si>
+    <t>21r01a0562</t>
+  </si>
+  <si>
+    <t>vedanthkankan</t>
+  </si>
+  <si>
+    <t>15.62%</t>
+  </si>
+  <si>
+    <t>21r01a04h0</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04h0</t>
+  </si>
+  <si>
+    <t>ram_21r01a04h0</t>
+  </si>
+  <si>
+    <t>15.59%</t>
+  </si>
+  <si>
+    <t>21r01a6743</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6743</t>
+  </si>
+  <si>
+    <t>nethaji_43</t>
+  </si>
+  <si>
+    <t>15.58%</t>
+  </si>
+  <si>
+    <t>21r01a7247</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a7247</t>
+  </si>
+  <si>
+    <t>shadulmohaljnv</t>
+  </si>
+  <si>
+    <t>mohammad_shadulla</t>
+  </si>
+  <si>
+    <t>mohammadshadul</t>
+  </si>
+  <si>
+    <t>15.52%</t>
+  </si>
+  <si>
+    <t>21r01a04h2</t>
+  </si>
+  <si>
+    <t>gowtham_h2</t>
+  </si>
+  <si>
+    <t>15.51%</t>
+  </si>
+  <si>
+    <t>22r05a6717</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a6717</t>
+  </si>
+  <si>
+    <t>22r05afiff</t>
+  </si>
+  <si>
+    <t>vishnu717</t>
+  </si>
+  <si>
+    <t>15.5%</t>
+  </si>
+  <si>
+    <t>22r05a0407</t>
+  </si>
+  <si>
+    <t>cmr25_22r05a0407</t>
+  </si>
+  <si>
+    <t>cmr22r05a0407</t>
+  </si>
+  <si>
+    <t>15.47%</t>
+  </si>
+  <si>
+    <t>21r01a0434</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a0434</t>
+  </si>
+  <si>
+    <t>21r01aipro</t>
+  </si>
+  <si>
+    <t>akshu66</t>
+  </si>
+  <si>
+    <t>15.44%</t>
+  </si>
+  <si>
+    <t>21r01a05c9</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05c9</t>
+  </si>
+  <si>
+    <t>21r01ab981</t>
+  </si>
+  <si>
+    <t>hamsika5c9</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>21r01a04d9</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04d9</t>
+  </si>
+  <si>
+    <t>cbhavaniprasad</t>
+  </si>
+  <si>
+    <t>bunnyy22</t>
+  </si>
+  <si>
+    <t>21r01a05j0</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05j0</t>
+  </si>
+  <si>
+    <t>sr21r01a05j0</t>
+  </si>
+  <si>
+    <t>15.37%</t>
+  </si>
+  <si>
+    <t>21r01a6786</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6786</t>
+  </si>
+  <si>
+    <t>premsai1029</t>
+  </si>
+  <si>
+    <t>15.32%</t>
+  </si>
+  <si>
+    <t>21r01a04j8</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04j8</t>
+  </si>
+  <si>
+    <t>21r01acwpw</t>
+  </si>
+  <si>
+    <t>nikhil_j8</t>
+  </si>
+  <si>
+    <t>15.25%</t>
+  </si>
+  <si>
+    <t>21r01a04b5</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04b5</t>
+  </si>
+  <si>
+    <t>cmr_21r01a04b5</t>
+  </si>
+  <si>
+    <t>15.18%</t>
+  </si>
+  <si>
+    <t>21r01a7203</t>
+  </si>
+  <si>
+    <t>cmr21r01a7203</t>
+  </si>
+  <si>
+    <t>15.17%</t>
+  </si>
+  <si>
+    <t>21r01a0489</t>
+  </si>
+  <si>
+    <t>cmr_21r01a0489</t>
+  </si>
+  <si>
+    <t>15.01%</t>
+  </si>
+  <si>
+    <t>21r01a05k7</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05k7</t>
+  </si>
+  <si>
+    <t>cmrit5k7</t>
+  </si>
+  <si>
+    <t>14.99%</t>
+  </si>
+  <si>
+    <t>21r01a6774</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6774</t>
+  </si>
+  <si>
+    <t>r01a6774</t>
+  </si>
+  <si>
+    <t>14.98%</t>
+  </si>
+  <si>
+    <t>21r01a7223</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a7223</t>
+  </si>
+  <si>
+    <t>21r01aewni</t>
+  </si>
+  <si>
+    <t>charishna</t>
+  </si>
+  <si>
+    <t>@21r01a7223</t>
+  </si>
+  <si>
+    <t>14.96%</t>
+  </si>
+  <si>
+    <t>21r01a66b9</t>
+  </si>
+  <si>
+    <t>21r01apkr1</t>
+  </si>
+  <si>
+    <t>prabhathrakam</t>
+  </si>
+  <si>
+    <t>14.95%</t>
+  </si>
+  <si>
+    <t>21r01a05k3</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05k3</t>
+  </si>
+  <si>
+    <t>ruthvik5k3</t>
+  </si>
+  <si>
+    <t>14.83%</t>
+  </si>
+  <si>
+    <t>21r01a05m2</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05m2</t>
+  </si>
+  <si>
+    <t>21r01an1s6</t>
+  </si>
+  <si>
+    <t>r01a05m2</t>
+  </si>
+  <si>
+    <t>14.8%</t>
+  </si>
+  <si>
+    <t>21r01a7235</t>
+  </si>
+  <si>
+    <t>sneha_kavali</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>21r01a6629</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6629</t>
+  </si>
+  <si>
+    <t>deepak_029</t>
+  </si>
+  <si>
+    <t>14.76%</t>
+  </si>
+  <si>
+    <t>22r05a0522</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a0522</t>
+  </si>
+  <si>
+    <t>22r05azmsf</t>
+  </si>
+  <si>
+    <t>sunny522</t>
+  </si>
+  <si>
+    <t>14.69%</t>
+  </si>
+  <si>
+    <t>21r01a05c8</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05c8</t>
+  </si>
+  <si>
+    <t>21r01anhzo</t>
+  </si>
+  <si>
+    <t>shanmukh2410</t>
+  </si>
+  <si>
+    <t>14.61%</t>
+  </si>
+  <si>
+    <t>21r01a6797</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6797</t>
+  </si>
+  <si>
+    <t>21r01alizy</t>
+  </si>
+  <si>
+    <t>bhagirao</t>
+  </si>
+  <si>
+    <t>bhagirathrao</t>
+  </si>
+  <si>
+    <t>14.59%</t>
+  </si>
+  <si>
+    <t>21r01a05b7</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05b7</t>
+  </si>
+  <si>
+    <t>ramya_b7</t>
+  </si>
+  <si>
+    <t>@21r01a05b7</t>
+  </si>
+  <si>
+    <t>14.58%</t>
+  </si>
+  <si>
+    <t>21r01a6639</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a6639</t>
+  </si>
+  <si>
+    <t>21r01aypux</t>
+  </si>
+  <si>
+    <t>udaycharan6639</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>21r01a6654</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6654</t>
+  </si>
+  <si>
+    <t>21r01a7zg7</t>
+  </si>
+  <si>
+    <t>kitu_4414</t>
+  </si>
+  <si>
+    <t>saikrishna414</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>21r01a67j8</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a67j8</t>
+  </si>
+  <si>
+    <t>21r01amz9e</t>
+  </si>
+  <si>
+    <t>21r01_a67j8</t>
+  </si>
+  <si>
+    <t>giridhar26</t>
+  </si>
+  <si>
+    <t>14.39%</t>
+  </si>
+  <si>
+    <t>21r01a67a5</t>
+  </si>
+  <si>
+    <t>adithya25</t>
+  </si>
+  <si>
+    <t>adithyaa5</t>
+  </si>
+  <si>
+    <t>adithya_a5</t>
+  </si>
+  <si>
+    <t>21r01a67a5@cmritonline.ac.in</t>
+  </si>
+  <si>
+    <t>14.38%</t>
+  </si>
+  <si>
+    <t>21r01a0475</t>
+  </si>
+  <si>
+    <t>krupakarreddy</t>
+  </si>
+  <si>
+    <t>cmr_21r01a0475</t>
+  </si>
+  <si>
+    <t>14.26%</t>
+  </si>
+  <si>
+    <t>21r01a0474</t>
+  </si>
+  <si>
+    <t>arvind412</t>
+  </si>
+  <si>
+    <t>21r01a2ifz</t>
+  </si>
+  <si>
+    <t>arvind_412</t>
+  </si>
+  <si>
+    <t>chakaliaravind@21r01a0474</t>
+  </si>
+  <si>
+    <t>14.11%</t>
+  </si>
+  <si>
+    <t>21r01a7206</t>
+  </si>
+  <si>
+    <t>p21r01a7206</t>
+  </si>
+  <si>
+    <t>21r01a66j2</t>
+  </si>
+  <si>
+    <t>r01a66j2</t>
+  </si>
+  <si>
+    <t>14.06%</t>
+  </si>
+  <si>
+    <t>21r01a04e7</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04e7</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a04e7</t>
+  </si>
+  <si>
+    <t>14.04%</t>
+  </si>
+  <si>
+    <t>21r01a6789</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a6789</t>
+  </si>
+  <si>
+    <t>21r01atc3f</t>
+  </si>
+  <si>
+    <t>vijay_6789</t>
+  </si>
+  <si>
+    <t>14.03%</t>
+  </si>
+  <si>
+    <t>21r01a05m6</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05m6</t>
+  </si>
+  <si>
+    <t>21r01acr0e</t>
+  </si>
+  <si>
+    <t>r01a05m6</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>21r01a05q8</t>
+  </si>
+  <si>
+    <t>u21r01a05q8</t>
+  </si>
+  <si>
+    <t>13.97%</t>
+  </si>
+  <si>
+    <t>21r01a6637</t>
+  </si>
+  <si>
+    <t>y21r01a6637</t>
+  </si>
+  <si>
+    <t>21r01asema</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>21r01a6768</t>
+  </si>
+  <si>
+    <t>21r01a5k5x</t>
+  </si>
+  <si>
+    <t>shruthi_40</t>
+  </si>
+  <si>
+    <t>ballishruthi4</t>
+  </si>
+  <si>
+    <t>13.9%</t>
+  </si>
+  <si>
+    <t>21r01a05k2</t>
+  </si>
+  <si>
+    <t>tejaa89</t>
+  </si>
+  <si>
+    <t>@21r01a05k2</t>
+  </si>
+  <si>
+    <t>13.84%</t>
+  </si>
+  <si>
+    <t>22r05a6708</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a6708</t>
+  </si>
+  <si>
+    <t>cmr_22r05a6708</t>
+  </si>
+  <si>
+    <t>13.75%</t>
+  </si>
+  <si>
+    <t>21r01a05p6</t>
+  </si>
+  <si>
+    <t>nainika_215p6</t>
+  </si>
+  <si>
+    <t>13.69%</t>
+  </si>
+  <si>
+    <t>21r01a04h9</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a04h9</t>
+  </si>
+  <si>
+    <t>adithya_h9</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>21r01a7218</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a7218</t>
+  </si>
+  <si>
+    <t>srisrivastav863</t>
+  </si>
+  <si>
+    <t>srivastav_4327</t>
+  </si>
+  <si>
+    <t>cmr_21r01a7218</t>
+  </si>
+  <si>
+    <t>21r01a7218_cmr</t>
+  </si>
+  <si>
+    <t>13.6%</t>
+  </si>
+  <si>
+    <t>21r01a05d4</t>
+  </si>
+  <si>
+    <t>bhavana00</t>
+  </si>
+  <si>
+    <t>13.48%</t>
+  </si>
+  <si>
+    <t>22r05a0409</t>
+  </si>
+  <si>
+    <t>cmrit25_22r05a0409</t>
+  </si>
+  <si>
+    <t>22ro5ao409</t>
+  </si>
+  <si>
+    <t>ravi22ro5ao409</t>
+  </si>
+  <si>
+    <t>21r01a66g4</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a66g4</t>
+  </si>
+  <si>
+    <t>navya_66g4</t>
+  </si>
+  <si>
+    <t>navya66g4</t>
+  </si>
+  <si>
+    <t>@21r01a66g4</t>
+  </si>
+  <si>
+    <t>13.44%</t>
+  </si>
+  <si>
+    <t>21r01a04n1</t>
+  </si>
+  <si>
+    <t>21r01a05e9</t>
+  </si>
+  <si>
+    <t>aaishwarya_11</t>
+  </si>
+  <si>
+    <t>a21r01a4n1</t>
+  </si>
+  <si>
+    <t>12.98%</t>
+  </si>
+  <si>
+    <t>21r01a0570</t>
+  </si>
+  <si>
+    <t>cmrit_21r01a0570</t>
+  </si>
+  <si>
+    <t>shreya_1_17</t>
+  </si>
+  <si>
+    <t>12.97%</t>
+  </si>
+  <si>
+    <t>22r05a0510</t>
+  </si>
+  <si>
+    <t>21r01a6770</t>
+  </si>
+  <si>
+    <t>cmrit2025_21r01a6770</t>
+  </si>
+  <si>
+    <t>12.32%</t>
+  </si>
+  <si>
+    <t>21r01a05f4</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a05f4</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>21r01a04r6</t>
+  </si>
+  <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>21r01a05q5</t>
+  </si>
+  <si>
+    <t>alshay5q5</t>
+  </si>
+  <si>
+    <t>akshay5q5</t>
+  </si>
+  <si>
+    <t>11.98%</t>
+  </si>
+  <si>
+    <t>21r01a67f0</t>
+  </si>
+  <si>
+    <t>21r01a67fo</t>
+  </si>
+  <si>
+    <t>harish_52</t>
+  </si>
+  <si>
+    <t>11.55%</t>
+  </si>
+  <si>
+    <t>21r01a0456</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a0456</t>
+  </si>
+  <si>
+    <t>anjaneyulu7_4</t>
+  </si>
+  <si>
+    <t>11.42%</t>
+  </si>
+  <si>
+    <t>21r01a67j6</t>
+  </si>
+  <si>
+    <t>cmrit-21r01a67j6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>tsujan</t>
+  </si>
+  <si>
+    <t>sujan</t>
+  </si>
+  <si>
+    <t>10.81%</t>
+  </si>
+  <si>
+    <t>21r01a0415</t>
+  </si>
+  <si>
+    <t>s21r01a0415</t>
+  </si>
+  <si>
+    <t>10.44%</t>
+  </si>
+  <si>
+    <t>21r01a7357</t>
+  </si>
+  <si>
+    <t>21r01ara1p</t>
+  </si>
+  <si>
+    <t>cmr21r01a7357</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>21r01a6739</t>
+  </si>
+  <si>
+    <t>21r01ali3f</t>
+  </si>
+  <si>
+    <t>ali39</t>
+  </si>
+  <si>
+    <t>@21r01a6739</t>
+  </si>
+  <si>
+    <t>10.23%</t>
+  </si>
+  <si>
+    <t>21r01a6746</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a6746</t>
+  </si>
+  <si>
+    <t>p21r01a6746</t>
+  </si>
+  <si>
+    <t>9.9%</t>
+  </si>
+  <si>
+    <t>21r01a05l0</t>
+  </si>
+  <si>
+    <t>manognakumar</t>
+  </si>
+  <si>
+    <t>21r01a05l0_manu</t>
+  </si>
+  <si>
+    <t>9.89%</t>
+  </si>
+  <si>
+    <t>21r01a0460</t>
+  </si>
+  <si>
+    <t>indhu_24</t>
+  </si>
+  <si>
+    <t>9.62%</t>
+  </si>
+  <si>
+    <t>21r01a67h8</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a67h8</t>
+  </si>
+  <si>
+    <t>bhavya67h8</t>
+  </si>
+  <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>21r01a7322</t>
+  </si>
+  <si>
+    <t>21r01a7322@cmritonline.ac.in</t>
+  </si>
+  <si>
+    <t>ramya_7322</t>
+  </si>
+  <si>
+    <t>9.32%</t>
+  </si>
+  <si>
+    <t>21r01a0565</t>
+  </si>
+  <si>
+    <t>cmrit25_21r01a0565</t>
+  </si>
+  <si>
+    <t>21r01ar0tu</t>
+  </si>
+  <si>
+    <t>21r01a0565_lohitha</t>
+  </si>
+  <si>
+    <t>cmr_21r01a0565</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
     <t>21r01a05p9</t>
   </si>
   <si>
     <t>hari05p9</t>
   </si>
   <si>
-    <t>16.51%</t>
-  </si>
-  <si>
-    <t>21r01a05a5</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05a5</t>
-  </si>
-  <si>
-    <t>muddasaniramya</t>
-  </si>
-  <si>
-    <t>ramyamuddasani</t>
-  </si>
-  <si>
-    <t>16.39%</t>
-  </si>
-  <si>
-    <t>21r01a7324</t>
-  </si>
-  <si>
-    <t>r01a7324</t>
-  </si>
-  <si>
-    <t>21r01ajyys</t>
-  </si>
-  <si>
-    <t>16.35%</t>
-  </si>
-  <si>
-    <t>21r01a7225</t>
-  </si>
-  <si>
-    <t>anonymou99wv</t>
-  </si>
-  <si>
-    <t>anilgoud</t>
-  </si>
-  <si>
-    <t>anil66</t>
-  </si>
-  <si>
-    <t>16.27%</t>
-  </si>
-  <si>
-    <t>21r01a7237</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a7237</t>
-  </si>
-  <si>
-    <t>arunreddy26</t>
-  </si>
-  <si>
-    <t>16.19%</t>
-  </si>
-  <si>
-    <t>21r01a0402</t>
-  </si>
-  <si>
-    <t>harneeth45</t>
-  </si>
-  <si>
-    <t>@21r01a0402</t>
-  </si>
-  <si>
-    <t>16.17%</t>
-  </si>
-  <si>
-    <t>21r01a0567</t>
-  </si>
-  <si>
-    <t>21r01abk04</t>
-  </si>
-  <si>
-    <t>saiteja567</t>
-  </si>
-  <si>
-    <t>16.13%</t>
-  </si>
-  <si>
-    <t>21r01a04d2</t>
-  </si>
-  <si>
-    <t>akshith4d2</t>
-  </si>
-  <si>
-    <t>16.12%</t>
-  </si>
-  <si>
-    <t>21r01a6780</t>
-  </si>
-  <si>
-    <t>22r05a0404</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a0404</t>
-  </si>
-  <si>
-    <t>chandu404</t>
-  </si>
-  <si>
-    <t>@22r05a0404</t>
-  </si>
-  <si>
-    <t>16.03%</t>
-  </si>
-  <si>
-    <t>21r01a04m1</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a04m1</t>
-  </si>
-  <si>
-    <t>shalini76</t>
-  </si>
-  <si>
-    <t>16.01%</t>
-  </si>
-  <si>
-    <t>21r01a6613</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6613</t>
-  </si>
-  <si>
-    <t>21r01a98ql</t>
-  </si>
-  <si>
-    <t>sheershitha_77</t>
-  </si>
-  <si>
-    <t>21r01a66f5</t>
-  </si>
-  <si>
-    <t>21r01am2b8</t>
-  </si>
-  <si>
-    <t>15.99%</t>
-  </si>
-  <si>
-    <t>21r01a6675</t>
-  </si>
-  <si>
-    <t>21r01ae7gl</t>
-  </si>
-  <si>
-    <t>varsha_146</t>
-  </si>
-  <si>
-    <t>15.91%</t>
-  </si>
-  <si>
-    <t>21r01a05l6</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a05l6</t>
-  </si>
-  <si>
-    <t>ranjith_20</t>
-  </si>
-  <si>
-    <t>15.89%</t>
-  </si>
-  <si>
-    <t>21r01a0492</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a0492</t>
-  </si>
-  <si>
-    <t>21r01amicz</t>
-  </si>
-  <si>
-    <t>kube21r01a0492</t>
-  </si>
-  <si>
-    <t>15.85%</t>
-  </si>
-  <si>
-    <t>22r05a7202</t>
-  </si>
-  <si>
-    <t>cmrit25-22r05a7202</t>
-  </si>
-  <si>
-    <t>22r05a7202@cmritonline.ac.in</t>
-  </si>
-  <si>
-    <t>kanakalaxmi</t>
-  </si>
-  <si>
-    <t>15.84%</t>
-  </si>
-  <si>
-    <t>21r01a0575</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a0575</t>
-  </si>
-  <si>
-    <t>21r01aauhx</t>
-  </si>
-  <si>
-    <t>chakri26</t>
-  </si>
-  <si>
-    <t>15.81%</t>
-  </si>
-  <si>
-    <t>21r01a7224</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a7224</t>
-  </si>
-  <si>
-    <t>21r01arg58</t>
-  </si>
-  <si>
-    <t>nikitha7224</t>
-  </si>
-  <si>
-    <t>@21r01a7224</t>
-  </si>
-  <si>
-    <t>15.8%</t>
-  </si>
-  <si>
-    <t>22r05a0411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmrit25_22r05a0411	</t>
-  </si>
-  <si>
-    <t>15.77%</t>
-  </si>
-  <si>
-    <t>22r05a7203</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a7203</t>
-  </si>
-  <si>
-    <t>@22r05a7203</t>
-  </si>
-  <si>
-    <t>shravansanjay</t>
-  </si>
-  <si>
-    <t>15.73%</t>
-  </si>
-  <si>
-    <t>21r01a0562</t>
-  </si>
-  <si>
-    <t>vedanthkankan</t>
-  </si>
-  <si>
-    <t>15.62%</t>
-  </si>
-  <si>
-    <t>21r01a04h0</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04h0</t>
-  </si>
-  <si>
-    <t>ram_21r01a04h0</t>
-  </si>
-  <si>
-    <t>15.59%</t>
-  </si>
-  <si>
-    <t>21r01a6743</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6743</t>
-  </si>
-  <si>
-    <t>nethaji_43</t>
-  </si>
-  <si>
-    <t>15.58%</t>
-  </si>
-  <si>
-    <t>21r01a7247</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a7247</t>
-  </si>
-  <si>
-    <t>shadulmohaljnv</t>
-  </si>
-  <si>
-    <t>mohammad_shadulla</t>
-  </si>
-  <si>
-    <t>mohammadshadul</t>
-  </si>
-  <si>
-    <t>15.52%</t>
-  </si>
-  <si>
-    <t>21r01a04h2</t>
-  </si>
-  <si>
-    <t>gowtham_h2</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>22r05a6717</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a6717</t>
-  </si>
-  <si>
-    <t>22r05afiff</t>
-  </si>
-  <si>
-    <t>vishnu717</t>
-  </si>
-  <si>
-    <t>15.5%</t>
-  </si>
-  <si>
-    <t>22r05a0407</t>
-  </si>
-  <si>
-    <t>cmr25_22r05a0407</t>
-  </si>
-  <si>
-    <t>cmr22r05a0407</t>
-  </si>
-  <si>
-    <t>15.47%</t>
-  </si>
-  <si>
-    <t>21r01a0434</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a0434</t>
-  </si>
-  <si>
-    <t>21r01aipro</t>
-  </si>
-  <si>
-    <t>akshu66</t>
-  </si>
-  <si>
-    <t>15.44%</t>
-  </si>
-  <si>
-    <t>21r01a05c9</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05c9</t>
-  </si>
-  <si>
-    <t>21r01ab981</t>
-  </si>
-  <si>
-    <t>hamsika5c9</t>
-  </si>
-  <si>
-    <t>15.38%</t>
-  </si>
-  <si>
-    <t>21r01a04d9</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04d9</t>
-  </si>
-  <si>
-    <t>cbhavaniprasad</t>
-  </si>
-  <si>
-    <t>bunnyy22</t>
-  </si>
-  <si>
-    <t>21r01a05j0</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05j0</t>
-  </si>
-  <si>
-    <t>sr21r01a05j0</t>
-  </si>
-  <si>
-    <t>15.37%</t>
-  </si>
-  <si>
-    <t>21r01a6786</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6786</t>
-  </si>
-  <si>
-    <t>premsai1029</t>
-  </si>
-  <si>
-    <t>15.32%</t>
-  </si>
-  <si>
-    <t>21r01a04j8</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04j8</t>
-  </si>
-  <si>
-    <t>21r01acwpw</t>
-  </si>
-  <si>
-    <t>nikhil_j8</t>
-  </si>
-  <si>
-    <t>15.25%</t>
-  </si>
-  <si>
-    <t>21r01a04b5</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04b5</t>
-  </si>
-  <si>
-    <t>cmr_21r01a04b5</t>
-  </si>
-  <si>
-    <t>15.18%</t>
-  </si>
-  <si>
-    <t>21r01a7203</t>
-  </si>
-  <si>
-    <t>cmr21r01a7203</t>
-  </si>
-  <si>
-    <t>15.17%</t>
-  </si>
-  <si>
-    <t>21r01a0489</t>
-  </si>
-  <si>
-    <t>cmr_21r01a0489</t>
-  </si>
-  <si>
-    <t>15.01%</t>
-  </si>
-  <si>
-    <t>21r01a05k7</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05k7</t>
-  </si>
-  <si>
-    <t>cmrit5k7</t>
-  </si>
-  <si>
-    <t>14.99%</t>
-  </si>
-  <si>
-    <t>21r01a6774</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6774</t>
-  </si>
-  <si>
-    <t>r01a6774</t>
-  </si>
-  <si>
-    <t>14.98%</t>
-  </si>
-  <si>
-    <t>21r01a7223</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a7223</t>
-  </si>
-  <si>
-    <t>21r01aewni</t>
-  </si>
-  <si>
-    <t>charishna</t>
-  </si>
-  <si>
-    <t>@21r01a7223</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>21r01a66b9</t>
-  </si>
-  <si>
-    <t>21r01apkr1</t>
-  </si>
-  <si>
-    <t>prabhathrakam</t>
-  </si>
-  <si>
-    <t>14.95%</t>
-  </si>
-  <si>
-    <t>21r01a05k3</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05k3</t>
-  </si>
-  <si>
-    <t>ruthvik5k3</t>
-  </si>
-  <si>
-    <t>14.83%</t>
-  </si>
-  <si>
-    <t>21r01a05m2</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05m2</t>
-  </si>
-  <si>
-    <t>21r01an1s6</t>
-  </si>
-  <si>
-    <t>r01a05m2</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
-    <t>21r01a7235</t>
-  </si>
-  <si>
-    <t>sneha_kavali</t>
-  </si>
-  <si>
-    <t>14.78%</t>
-  </si>
-  <si>
-    <t>21r01a6629</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6629</t>
-  </si>
-  <si>
-    <t>deepak_029</t>
-  </si>
-  <si>
-    <t>14.76%</t>
-  </si>
-  <si>
-    <t>22r05a0522</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a0522</t>
-  </si>
-  <si>
-    <t>22r05azmsf</t>
-  </si>
-  <si>
-    <t>sunny522</t>
-  </si>
-  <si>
-    <t>14.69%</t>
-  </si>
-  <si>
-    <t>21r01a05c8</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05c8</t>
-  </si>
-  <si>
-    <t>21r01anhzo</t>
-  </si>
-  <si>
-    <t>shanmukh2410</t>
-  </si>
-  <si>
-    <t>14.61%</t>
-  </si>
-  <si>
-    <t>21r01a6797</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6797</t>
-  </si>
-  <si>
-    <t>21r01alizy</t>
-  </si>
-  <si>
-    <t>bhagirao</t>
-  </si>
-  <si>
-    <t>bhagirathrao</t>
-  </si>
-  <si>
-    <t>14.59%</t>
-  </si>
-  <si>
-    <t>21r01a05b7</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05b7</t>
-  </si>
-  <si>
-    <t>ramya_b7</t>
-  </si>
-  <si>
-    <t>@21r01a05b7</t>
-  </si>
-  <si>
-    <t>14.58%</t>
-  </si>
-  <si>
-    <t>21r01a6639</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a6639</t>
-  </si>
-  <si>
-    <t>21r01aypux</t>
-  </si>
-  <si>
-    <t>udaycharan6639</t>
-  </si>
-  <si>
-    <t>14.55%</t>
-  </si>
-  <si>
-    <t>21r01a6654</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6654</t>
-  </si>
-  <si>
-    <t>21r01a7zg7</t>
-  </si>
-  <si>
-    <t>kitu_4414</t>
-  </si>
-  <si>
-    <t>saikrishna414</t>
-  </si>
-  <si>
-    <t>14.43%</t>
-  </si>
-  <si>
-    <t>21r01a67j8</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a67j8</t>
-  </si>
-  <si>
-    <t>21r01amz9e</t>
-  </si>
-  <si>
-    <t>21r01_a67j8</t>
-  </si>
-  <si>
-    <t>giridhar26</t>
-  </si>
-  <si>
-    <t>14.39%</t>
-  </si>
-  <si>
-    <t>21r01a67a5</t>
-  </si>
-  <si>
-    <t>adithya25</t>
-  </si>
-  <si>
-    <t>adithyaa5</t>
-  </si>
-  <si>
-    <t>adithya_a5</t>
-  </si>
-  <si>
-    <t>21r01a67a5@cmritonline.ac.in</t>
-  </si>
-  <si>
-    <t>14.38%</t>
-  </si>
-  <si>
-    <t>21r01a0475</t>
-  </si>
-  <si>
-    <t>krupakarreddy</t>
-  </si>
-  <si>
-    <t>cmr_21r01a0475</t>
-  </si>
-  <si>
-    <t>14.26%</t>
-  </si>
-  <si>
-    <t>21r01a0474</t>
-  </si>
-  <si>
-    <t>arvind412</t>
-  </si>
-  <si>
-    <t>21r01a2ifz</t>
-  </si>
-  <si>
-    <t>arvind_412</t>
-  </si>
-  <si>
-    <t>chakaliaravind@21r01a0474</t>
-  </si>
-  <si>
-    <t>14.11%</t>
-  </si>
-  <si>
-    <t>21r01a7206</t>
-  </si>
-  <si>
-    <t>p21r01a7206</t>
-  </si>
-  <si>
-    <t>21r01a66j2</t>
-  </si>
-  <si>
-    <t>r01a66j2</t>
-  </si>
-  <si>
-    <t>14.06%</t>
-  </si>
-  <si>
-    <t>21r01a04e7</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04e7</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a04e7</t>
-  </si>
-  <si>
-    <t>14.04%</t>
-  </si>
-  <si>
-    <t>21r01a6789</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a6789</t>
-  </si>
-  <si>
-    <t>21r01atc3f</t>
-  </si>
-  <si>
-    <t>vijay_6789</t>
-  </si>
-  <si>
-    <t>14.03%</t>
-  </si>
-  <si>
-    <t>21r01a05m6</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05m6</t>
-  </si>
-  <si>
-    <t>21r01acr0e</t>
-  </si>
-  <si>
-    <t>r01a05m6</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>21r01a05q8</t>
-  </si>
-  <si>
-    <t>u21r01a05q8</t>
-  </si>
-  <si>
-    <t>13.97%</t>
-  </si>
-  <si>
-    <t>21r01a6637</t>
-  </si>
-  <si>
-    <t>y21r01a6637</t>
-  </si>
-  <si>
-    <t>21r01asema</t>
-  </si>
-  <si>
-    <t>13.95%</t>
-  </si>
-  <si>
-    <t>21r01a6768</t>
-  </si>
-  <si>
-    <t>21r01a5k5x</t>
-  </si>
-  <si>
-    <t>shruthi_40</t>
-  </si>
-  <si>
-    <t>ballishruthi4</t>
-  </si>
-  <si>
-    <t>13.9%</t>
-  </si>
-  <si>
-    <t>21r01a05k2</t>
-  </si>
-  <si>
-    <t>tejaa89</t>
-  </si>
-  <si>
-    <t>@21r01a05k2</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>22r05a6708</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a6708</t>
-  </si>
-  <si>
-    <t>cmr_22r05a6708</t>
-  </si>
-  <si>
-    <t>13.75%</t>
-  </si>
-  <si>
-    <t>21r01a05p6</t>
-  </si>
-  <si>
-    <t>nainika_215p6</t>
-  </si>
-  <si>
-    <t>13.69%</t>
-  </si>
-  <si>
-    <t>21r01a04h9</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a04h9</t>
-  </si>
-  <si>
-    <t>adithya_h9</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>21r01a7218</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a7218</t>
-  </si>
-  <si>
-    <t>srisrivastav863</t>
-  </si>
-  <si>
-    <t>srivastav_4327</t>
-  </si>
-  <si>
-    <t>cmr_21r01a7218</t>
-  </si>
-  <si>
-    <t>21r01a7218_cmr</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>21r01a05d4</t>
-  </si>
-  <si>
-    <t>bhavana00</t>
-  </si>
-  <si>
-    <t>13.48%</t>
-  </si>
-  <si>
-    <t>22r05a0409</t>
-  </si>
-  <si>
-    <t>cmrit25_22r05a0409</t>
-  </si>
-  <si>
-    <t>22ro5ao409</t>
-  </si>
-  <si>
-    <t>ravi22ro5ao409</t>
-  </si>
-  <si>
-    <t>21r01a66g4</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a66g4</t>
-  </si>
-  <si>
-    <t>navya_66g4</t>
-  </si>
-  <si>
-    <t>navya66g4</t>
-  </si>
-  <si>
-    <t>@21r01a66g4</t>
-  </si>
-  <si>
-    <t>13.44%</t>
-  </si>
-  <si>
-    <t>21r01a04n1</t>
-  </si>
-  <si>
-    <t>21r01a05e9</t>
-  </si>
-  <si>
-    <t>aaishwarya_11</t>
-  </si>
-  <si>
-    <t>a21r01a4n1</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>21r01a0570</t>
-  </si>
-  <si>
-    <t>cmrit_21r01a0570</t>
-  </si>
-  <si>
-    <t>shreya_1_17</t>
-  </si>
-  <si>
-    <t>12.97%</t>
-  </si>
-  <si>
-    <t>22r05a0510</t>
-  </si>
-  <si>
-    <t>21r01a6770</t>
-  </si>
-  <si>
-    <t>cmrit2025_21r01a6770</t>
-  </si>
-  <si>
-    <t>12.32%</t>
-  </si>
-  <si>
-    <t>21r01a05f4</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a05f4</t>
-  </si>
-  <si>
-    <t>12.18%</t>
-  </si>
-  <si>
-    <t>21r01a04r6</t>
-  </si>
-  <si>
-    <t>12.12%</t>
-  </si>
-  <si>
-    <t>21r01a05q5</t>
-  </si>
-  <si>
-    <t>alshay5q5</t>
-  </si>
-  <si>
-    <t>akshay5q5</t>
-  </si>
-  <si>
-    <t>11.98%</t>
-  </si>
-  <si>
-    <t>21r01a67f0</t>
-  </si>
-  <si>
-    <t>21r01a67fo</t>
-  </si>
-  <si>
-    <t>harish_52</t>
-  </si>
-  <si>
-    <t>11.55%</t>
-  </si>
-  <si>
-    <t>21r01a0456</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a0456</t>
-  </si>
-  <si>
-    <t>anjaneyulu7_4</t>
-  </si>
-  <si>
-    <t>11.42%</t>
-  </si>
-  <si>
-    <t>21r01a67j6</t>
-  </si>
-  <si>
-    <t>cmrit-21r01a67j6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>tsujan</t>
-  </si>
-  <si>
-    <t>sujan</t>
-  </si>
-  <si>
-    <t>10.81%</t>
-  </si>
-  <si>
-    <t>21r01a0415</t>
-  </si>
-  <si>
-    <t>s21r01a0415</t>
-  </si>
-  <si>
-    <t>10.44%</t>
-  </si>
-  <si>
-    <t>21r01a7357</t>
-  </si>
-  <si>
-    <t>21r01ara1p</t>
-  </si>
-  <si>
-    <t>cmr21r01a7357</t>
-  </si>
-  <si>
-    <t>10.34%</t>
-  </si>
-  <si>
-    <t>21r01a6739</t>
-  </si>
-  <si>
-    <t>21r01ali3f</t>
-  </si>
-  <si>
-    <t>ali39</t>
-  </si>
-  <si>
-    <t>@21r01a6739</t>
-  </si>
-  <si>
-    <t>10.23%</t>
-  </si>
-  <si>
-    <t>21r01a6746</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a6746</t>
-  </si>
-  <si>
-    <t>p21r01a6746</t>
-  </si>
-  <si>
-    <t>9.9%</t>
-  </si>
-  <si>
-    <t>21r01a05l0</t>
-  </si>
-  <si>
-    <t>manognakumar</t>
-  </si>
-  <si>
-    <t>21r01a05l0_manu</t>
-  </si>
-  <si>
-    <t>9.89%</t>
-  </si>
-  <si>
-    <t>21r01a0460</t>
-  </si>
-  <si>
-    <t>indhu_24</t>
-  </si>
-  <si>
-    <t>9.62%</t>
-  </si>
-  <si>
-    <t>21r01a67h8</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a67h8</t>
-  </si>
-  <si>
-    <t>bhavya67h8</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>21r01a7322</t>
-  </si>
-  <si>
-    <t>21r01a7322@cmritonline.ac.in</t>
-  </si>
-  <si>
-    <t>ramya_7322</t>
-  </si>
-  <si>
-    <t>9.32%</t>
-  </si>
-  <si>
-    <t>21r01a0565</t>
-  </si>
-  <si>
-    <t>cmrit25_21r01a0565</t>
-  </si>
-  <si>
-    <t>21r01ar0tu</t>
-  </si>
-  <si>
-    <t>21r01a0565_lohitha</t>
-  </si>
-  <si>
-    <t>cmr_21r01a0565</t>
-  </si>
-  <si>
-    <t>9.1%</t>
+    <t>9.08%</t>
   </si>
   <si>
     <t>21r01a0440</t>
@@ -32254,40 +32254,40 @@
         <v>2046</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D467" t="n" s="2">
-        <v>351.0</v>
+        <v>362.0</v>
       </c>
       <c r="E467" t="s" s="2">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="F467" t="n" s="2">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="G467" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="s" s="2">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="I467" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="K467" t="n" s="2">
-        <v>1080.0</v>
+        <v>979.0</v>
       </c>
       <c r="L467" t="s" s="2">
         <v>2046</v>
       </c>
       <c r="M467" t="n" s="2">
-        <v>50.0</v>
+        <v>104.0</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>2048</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="468">
@@ -32295,43 +32295,43 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="D468" t="n" s="2">
-        <v>362.0</v>
+        <v>350.0</v>
       </c>
       <c r="E468" t="s" s="2">
+        <v>2053</v>
+      </c>
+      <c r="F468" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G468" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H468" t="s" s="2">
         <v>2051</v>
       </c>
-      <c r="F468" t="n" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="G468" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H468" t="s" s="2">
-        <v>2052</v>
-      </c>
       <c r="I468" t="n" s="2">
-        <v>0.0</v>
+        <v>1473.0</v>
       </c>
       <c r="J468" t="s" s="2">
         <v>2052</v>
       </c>
       <c r="K468" t="n" s="2">
-        <v>979.0</v>
+        <v>0.0</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="M468" t="n" s="2">
-        <v>104.0</v>
+        <v>0.0</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="469">
@@ -32339,7 +32339,7 @@
         <v>468.0</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>2055</v>
@@ -32351,31 +32351,31 @@
         <v>2056</v>
       </c>
       <c r="F469" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G469" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="H469" t="s" s="2">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="I469" t="n" s="2">
-        <v>1473.0</v>
+        <v>0.0</v>
       </c>
       <c r="J469" t="s" s="2">
+        <v>2058</v>
+      </c>
+      <c r="K469" t="n" s="2">
+        <v>1229.0</v>
+      </c>
+      <c r="L469" t="s" s="2">
         <v>2055</v>
       </c>
-      <c r="K469" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L469" t="s" s="2">
-        <v>2054</v>
-      </c>
       <c r="M469" t="n" s="2">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="470">
@@ -32383,19 +32383,19 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="D470" t="n" s="2">
-        <v>350.0</v>
+        <v>402.0</v>
       </c>
       <c r="E470" t="s" s="2">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="F470" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G470" t="n" s="2">
         <v>0.0</v>
@@ -32407,19 +32407,19 @@
         <v>0.0</v>
       </c>
       <c r="J470" t="s" s="2">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="K470" t="n" s="2">
-        <v>1229.0</v>
+        <v>943.0</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="M470" t="n" s="2">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="471">
@@ -32427,25 +32427,25 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>2064</v>
       </c>
       <c r="D471" t="n" s="2">
-        <v>402.0</v>
+        <v>449.0</v>
       </c>
       <c r="E471" t="s" s="2">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F471" t="n" s="2">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="G471" t="n" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H471" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="I471" t="n" s="2">
         <v>0.0</v>
@@ -32454,16 +32454,16 @@
         <v>2065</v>
       </c>
       <c r="K471" t="n" s="2">
-        <v>943.0</v>
+        <v>625.0</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="M471" t="n" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="472">
@@ -32471,43 +32471,43 @@
         <v>471.0</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D472" t="n" s="2">
-        <v>449.0</v>
+        <v>0.0</v>
       </c>
       <c r="E472" t="s" s="2">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="F472" t="n" s="2">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="G472" t="n" s="2">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="H472" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="I472" t="n" s="2">
-        <v>0.0</v>
+        <v>1436.0</v>
       </c>
       <c r="J472" t="s" s="2">
+        <v>2070</v>
+      </c>
+      <c r="K472" t="n" s="2">
+        <v>1037.0</v>
+      </c>
+      <c r="L472" t="s" s="2">
         <v>2068</v>
       </c>
-      <c r="K472" t="n" s="2">
-        <v>625.0</v>
-      </c>
-      <c r="L472" t="s" s="2">
-        <v>2069</v>
-      </c>
       <c r="M472" t="n" s="2">
-        <v>0.0</v>
+        <v>128.0</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="473">
@@ -32515,10 +32515,10 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D473" t="n" s="2">
         <v>0.0</v>
@@ -32527,28 +32527,28 @@
         <v>2072</v>
       </c>
       <c r="F473" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G473" t="n" s="2">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="H473" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="I473" t="n" s="2">
-        <v>1436.0</v>
+        <v>1423.0</v>
       </c>
       <c r="J473" t="s" s="2">
         <v>2073</v>
       </c>
       <c r="K473" t="n" s="2">
-        <v>1037.0</v>
+        <v>834.0</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="M473" t="n" s="2">
-        <v>128.0</v>
+        <v>228.0</v>
       </c>
       <c r="N473" t="s" s="2">
         <v>2074</v>
@@ -32565,37 +32565,37 @@
         <v>2075</v>
       </c>
       <c r="D474" t="n" s="2">
-        <v>0.0</v>
+        <v>762.0</v>
       </c>
       <c r="E474" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="F474" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G474" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H474" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="I474" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J474" t="s" s="2">
         <v>2075</v>
       </c>
-      <c r="F474" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G474" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H474" t="s" s="2">
-        <v>2075</v>
-      </c>
-      <c r="I474" t="n" s="2">
-        <v>1423.0</v>
-      </c>
-      <c r="J474" t="s" s="2">
-        <v>2076</v>
-      </c>
       <c r="K474" t="n" s="2">
-        <v>834.0</v>
+        <v>0.0</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>2075</v>
+        <v>579</v>
       </c>
       <c r="M474" t="n" s="2">
-        <v>228.0</v>
+        <v>0.0</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="475">
@@ -32603,25 +32603,25 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D475" t="n" s="2">
-        <v>762.0</v>
+        <v>357.0</v>
       </c>
       <c r="E475" t="s" s="2">
-        <v>579</v>
+        <v>2076</v>
       </c>
       <c r="F475" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G475" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="H475" t="s" s="2">
-        <v>579</v>
+        <v>2076</v>
       </c>
       <c r="I475" t="n" s="2">
         <v>0.0</v>
@@ -32630,16 +32630,16 @@
         <v>2078</v>
       </c>
       <c r="K475" t="n" s="2">
-        <v>0.0</v>
+        <v>1245.0</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>579</v>
+        <v>2079</v>
       </c>
       <c r="M475" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>2077</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="476">
@@ -32647,43 +32647,43 @@
         <v>475.0</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="D476" t="n" s="2">
-        <v>357.0</v>
+        <v>0.0</v>
       </c>
       <c r="E476" t="s" s="2">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="F476" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G476" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H476" t="s" s="2">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="I476" t="n" s="2">
-        <v>0.0</v>
+        <v>1420.0</v>
       </c>
       <c r="J476" t="s" s="2">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="K476" t="n" s="2">
-        <v>1245.0</v>
+        <v>1067.0</v>
       </c>
       <c r="L476" t="s" s="2">
         <v>2082</v>
       </c>
       <c r="M476" t="n" s="2">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="477">
@@ -32691,43 +32691,43 @@
         <v>476.0</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C477" t="s" s="2">
+        <v>2086</v>
+      </c>
+      <c r="D477" t="n" s="2">
+        <v>355.0</v>
+      </c>
+      <c r="E477" t="s" s="2">
+        <v>2087</v>
+      </c>
+      <c r="F477" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G477" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="H477" t="s" s="2">
         <v>2085</v>
       </c>
-      <c r="D477" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E477" t="s" s="2">
-        <v>2084</v>
-      </c>
-      <c r="F477" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G477" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="H477" t="s" s="2">
-        <v>2084</v>
-      </c>
       <c r="I477" t="n" s="2">
-        <v>1420.0</v>
+        <v>0.0</v>
       </c>
       <c r="J477" t="s" s="2">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="K477" t="n" s="2">
-        <v>1067.0</v>
+        <v>1062.0</v>
       </c>
       <c r="L477" t="s" s="2">
         <v>2085</v>
       </c>
       <c r="M477" t="n" s="2">
-        <v>107.0</v>
+        <v>167.0</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="478">
@@ -32735,13 +32735,13 @@
         <v>477.0</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>2089</v>
       </c>
       <c r="D478" t="n" s="2">
-        <v>355.0</v>
+        <v>719.0</v>
       </c>
       <c r="E478" t="s" s="2">
         <v>2090</v>
@@ -32750,28 +32750,28 @@
         <v>0.0</v>
       </c>
       <c r="G478" t="n" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="H478" t="s" s="2">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="I478" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J478" t="s" s="2">
+        <v>2089</v>
+      </c>
+      <c r="K478" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L478" t="s" s="2">
+        <v>2089</v>
+      </c>
+      <c r="M478" t="n" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="N478" t="s" s="2">
         <v>2091</v>
-      </c>
-      <c r="K478" t="n" s="2">
-        <v>1062.0</v>
-      </c>
-      <c r="L478" t="s" s="2">
-        <v>2088</v>
-      </c>
-      <c r="M478" t="n" s="2">
-        <v>167.0</v>
-      </c>
-      <c r="N478" t="s" s="2">
-        <v>2087</v>
       </c>
     </row>
     <row r="479">
@@ -32785,7 +32785,7 @@
         <v>2092</v>
       </c>
       <c r="D479" t="n" s="2">
-        <v>719.0</v>
+        <v>0.0</v>
       </c>
       <c r="E479" t="s" s="2">
         <v>2093</v>
@@ -32794,28 +32794,28 @@
         <v>0.0</v>
       </c>
       <c r="G479" t="n" s="2">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="H479" t="s" s="2">
         <v>2092</v>
       </c>
       <c r="I479" t="n" s="2">
-        <v>0.0</v>
+        <v>1439.0</v>
       </c>
       <c r="J479" t="s" s="2">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="K479" t="n" s="2">
-        <v>0.0</v>
+        <v>1120.0</v>
       </c>
       <c r="L479" t="s" s="2">
         <v>2092</v>
       </c>
       <c r="M479" t="n" s="2">
-        <v>65.0</v>
+        <v>55.0</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="480">
@@ -32823,10 +32823,10 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D480" t="n" s="2">
         <v>0.0</v>
@@ -32838,28 +32838,28 @@
         <v>0.0</v>
       </c>
       <c r="G480" t="n" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H480" t="s" s="2">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="I480" t="n" s="2">
-        <v>1439.0</v>
+        <v>1381.0</v>
       </c>
       <c r="J480" t="s" s="2">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="K480" t="n" s="2">
         <v>1120.0</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="M480" t="n" s="2">
-        <v>55.0</v>
+        <v>90.0</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="481">
@@ -32867,43 +32867,43 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C481" t="s" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D481" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E481" t="s" s="2">
+        <v>2102</v>
+      </c>
+      <c r="F481" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G481" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H481" t="s" s="2">
         <v>2100</v>
       </c>
-      <c r="D481" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E481" t="s" s="2">
-        <v>2099</v>
-      </c>
-      <c r="F481" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G481" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="H481" t="s" s="2">
-        <v>2099</v>
-      </c>
       <c r="I481" t="n" s="2">
-        <v>1381.0</v>
+        <v>1410.0</v>
       </c>
       <c r="J481" t="s" s="2">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="K481" t="n" s="2">
-        <v>1120.0</v>
+        <v>995.0</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="M481" t="n" s="2">
-        <v>90.0</v>
+        <v>99.0</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>2102</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="482">
@@ -32911,43 +32911,43 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="D482" t="n" s="2">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E482" t="s" s="2">
+        <v>2107</v>
+      </c>
+      <c r="F482" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G482" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>2108</v>
+      </c>
+      <c r="I482" t="n" s="2">
+        <v>1363.0</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>2107</v>
+      </c>
+      <c r="K482" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L482" t="s" s="2">
         <v>2105</v>
       </c>
-      <c r="F482" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G482" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H482" t="s" s="2">
-        <v>2103</v>
-      </c>
-      <c r="I482" t="n" s="2">
-        <v>1410.0</v>
-      </c>
-      <c r="J482" t="s" s="2">
-        <v>2106</v>
-      </c>
-      <c r="K482" t="n" s="2">
-        <v>995.0</v>
-      </c>
-      <c r="L482" t="s" s="2">
-        <v>2103</v>
-      </c>
       <c r="M482" t="n" s="2">
-        <v>99.0</v>
+        <v>73.0</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="483">
@@ -32955,43 +32955,43 @@
         <v>482.0</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="D483" t="n" s="2">
-        <v>349.0</v>
+        <v>356.0</v>
       </c>
       <c r="E483" t="s" s="2">
+        <v>2112</v>
+      </c>
+      <c r="F483" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G483" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H483" t="s" s="2">
         <v>2110</v>
       </c>
-      <c r="F483" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G483" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H483" t="s" s="2">
-        <v>2111</v>
-      </c>
       <c r="I483" t="n" s="2">
-        <v>1363.0</v>
+        <v>0.0</v>
       </c>
       <c r="J483" t="s" s="2">
+        <v>2113</v>
+      </c>
+      <c r="K483" t="n" s="2">
+        <v>1139.0</v>
+      </c>
+      <c r="L483" t="s" s="2">
         <v>2110</v>
       </c>
-      <c r="K483" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L483" t="s" s="2">
-        <v>2108</v>
-      </c>
       <c r="M483" t="n" s="2">
-        <v>73.0</v>
+        <v>110.0</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="484">
@@ -32999,43 +32999,43 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="D484" t="n" s="2">
-        <v>356.0</v>
+        <v>364.0</v>
       </c>
       <c r="E484" t="s" s="2">
+        <v>2117</v>
+      </c>
+      <c r="F484" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G484" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H484" t="s" s="2">
         <v>2115</v>
       </c>
-      <c r="F484" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G484" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H484" t="s" s="2">
-        <v>2113</v>
-      </c>
       <c r="I484" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J484" t="s" s="2">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="K484" t="n" s="2">
-        <v>1139.0</v>
+        <v>1101.0</v>
       </c>
       <c r="L484" t="s" s="2">
-        <v>2113</v>
+        <v>2119</v>
       </c>
       <c r="M484" t="n" s="2">
-        <v>110.0</v>
+        <v>0.0</v>
       </c>
       <c r="N484" t="s" s="2">
-        <v>2117</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="485">
@@ -33043,40 +33043,40 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="D485" t="n" s="2">
-        <v>364.0</v>
+        <v>341.0</v>
       </c>
       <c r="E485" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F485" t="n" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G485" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="H485" t="s" s="2">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="I485" t="n" s="2">
-        <v>0.0</v>
+        <v>1434.0</v>
       </c>
       <c r="J485" t="s" s="2">
         <v>2121</v>
       </c>
       <c r="K485" t="n" s="2">
-        <v>1101.0</v>
+        <v>0.0</v>
       </c>
       <c r="L485" t="s" s="2">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M485" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="N485" t="s" s="2">
         <v>2123</v>
@@ -33093,10 +33093,10 @@
         <v>2125</v>
       </c>
       <c r="D486" t="n" s="2">
-        <v>341.0</v>
+        <v>0.0</v>
       </c>
       <c r="E486" t="s" s="2">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="F486" t="n" s="2">
         <v>0.0</v>
@@ -33105,25 +33105,25 @@
         <v>0.0</v>
       </c>
       <c r="H486" t="s" s="2">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="I486" t="n" s="2">
-        <v>1434.0</v>
+        <v>1457.0</v>
       </c>
       <c r="J486" t="s" s="2">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="K486" t="n" s="2">
-        <v>0.0</v>
+        <v>1164.0</v>
       </c>
       <c r="L486" t="s" s="2">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="M486" t="n" s="2">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="N486" t="s" s="2">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="487">
@@ -33131,13 +33131,13 @@
         <v>486.0</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="D487" t="n" s="2">
-        <v>0.0</v>
+        <v>396.0</v>
       </c>
       <c r="E487" t="s" s="2">
         <v>2129</v>
@@ -33152,19 +33152,19 @@
         <v>2130</v>
       </c>
       <c r="I487" t="n" s="2">
-        <v>1457.0</v>
+        <v>0.0</v>
       </c>
       <c r="J487" t="s" s="2">
         <v>2130</v>
       </c>
       <c r="K487" t="n" s="2">
-        <v>1164.0</v>
+        <v>1085.0</v>
       </c>
       <c r="L487" t="s" s="2">
         <v>2129</v>
       </c>
       <c r="M487" t="n" s="2">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="N487" t="s" s="2">
         <v>2131</v>
@@ -33178,40 +33178,40 @@
         <v>2132</v>
       </c>
       <c r="C488" t="s" s="2">
+        <v>2133</v>
+      </c>
+      <c r="D488" t="n" s="2">
+        <v>351.0</v>
+      </c>
+      <c r="E488" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="F488" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G488" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H488" t="s" s="2">
         <v>2132</v>
       </c>
-      <c r="D488" t="n" s="2">
-        <v>396.0</v>
-      </c>
-      <c r="E488" t="s" s="2">
-        <v>2132</v>
-      </c>
-      <c r="F488" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G488" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H488" t="s" s="2">
-        <v>2133</v>
-      </c>
       <c r="I488" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J488" t="s" s="2">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="K488" t="n" s="2">
-        <v>1085.0</v>
+        <v>1216.0</v>
       </c>
       <c r="L488" t="s" s="2">
         <v>2132</v>
       </c>
       <c r="M488" t="n" s="2">
-        <v>35.0</v>
+        <v>45.0</v>
       </c>
       <c r="N488" t="s" s="2">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="489">
@@ -33219,16 +33219,16 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="D489" t="n" s="2">
-        <v>351.0</v>
+        <v>356.0</v>
       </c>
       <c r="E489" t="s" s="2">
-        <v>579</v>
+        <v>2138</v>
       </c>
       <c r="F489" t="n" s="2">
         <v>0.0</v>
@@ -33237,25 +33237,25 @@
         <v>0.0</v>
       </c>
       <c r="H489" t="s" s="2">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="I489" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J489" t="s" s="2">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="K489" t="n" s="2">
-        <v>1216.0</v>
+        <v>1264.0</v>
       </c>
       <c r="L489" t="s" s="2">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="M489" t="n" s="2">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="490">
@@ -33263,43 +33263,43 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C490" t="s" s="2">
+        <v>2141</v>
+      </c>
+      <c r="D490" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E490" t="s" s="2">
+        <v>2142</v>
+      </c>
+      <c r="F490" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G490" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>2143</v>
+      </c>
+      <c r="I490" t="n" s="2">
+        <v>1412.0</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>2144</v>
+      </c>
+      <c r="K490" t="n" s="2">
+        <v>1045.0</v>
+      </c>
+      <c r="L490" t="s" s="2">
         <v>2140</v>
       </c>
-      <c r="D490" t="n" s="2">
-        <v>356.0</v>
-      </c>
-      <c r="E490" t="s" s="2">
-        <v>2141</v>
-      </c>
-      <c r="F490" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G490" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H490" t="s" s="2">
-        <v>2141</v>
-      </c>
-      <c r="I490" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J490" t="s" s="2">
-        <v>2141</v>
-      </c>
-      <c r="K490" t="n" s="2">
-        <v>1264.0</v>
-      </c>
-      <c r="L490" t="s" s="2">
-        <v>2141</v>
-      </c>
       <c r="M490" t="n" s="2">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="N490" t="s" s="2">
-        <v>2142</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="491">
@@ -33307,16 +33307,16 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="D491" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E491" t="s" s="2">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="F491" t="n" s="2">
         <v>0.0</v>
@@ -33328,19 +33328,19 @@
         <v>2146</v>
       </c>
       <c r="I491" t="n" s="2">
-        <v>1412.0</v>
+        <v>1421.0</v>
       </c>
       <c r="J491" t="s" s="2">
         <v>2147</v>
       </c>
       <c r="K491" t="n" s="2">
-        <v>1045.0</v>
+        <v>1125.0</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="M491" t="n" s="2">
-        <v>87.0</v>
+        <v>25.0</v>
       </c>
       <c r="N491" t="s" s="2">
         <v>2148</v>
@@ -33354,13 +33354,13 @@
         <v>2149</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="D492" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E492" t="s" s="2">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="F492" t="n" s="2">
         <v>0.0</v>
@@ -33372,22 +33372,22 @@
         <v>2149</v>
       </c>
       <c r="I492" t="n" s="2">
-        <v>1421.0</v>
+        <v>1385.0</v>
       </c>
       <c r="J492" t="s" s="2">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="K492" t="n" s="2">
-        <v>1125.0</v>
+        <v>1161.0</v>
       </c>
       <c r="L492" t="s" s="2">
         <v>2149</v>
       </c>
       <c r="M492" t="n" s="2">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="493">
@@ -33395,43 +33395,43 @@
         <v>492.0</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D493" t="n" s="2">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="E493" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="F493" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G493" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="I493" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>2156</v>
+      </c>
+      <c r="K493" t="n" s="2">
+        <v>1168.0</v>
+      </c>
+      <c r="L493" t="s" s="2">
         <v>2154</v>
       </c>
-      <c r="F493" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G493" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H493" t="s" s="2">
-        <v>2152</v>
-      </c>
-      <c r="I493" t="n" s="2">
-        <v>1385.0</v>
-      </c>
-      <c r="J493" t="s" s="2">
-        <v>2155</v>
-      </c>
-      <c r="K493" t="n" s="2">
-        <v>1161.0</v>
-      </c>
-      <c r="L493" t="s" s="2">
-        <v>2152</v>
-      </c>
       <c r="M493" t="n" s="2">
-        <v>22.0</v>
+        <v>67.0</v>
       </c>
       <c r="N493" t="s" s="2">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="494">
@@ -33439,16 +33439,16 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="D494" t="n" s="2">
         <v>350.0</v>
       </c>
       <c r="E494" t="s" s="2">
-        <v>579</v>
+        <v>2160</v>
       </c>
       <c r="F494" t="n" s="2">
         <v>0.0</v>
@@ -33457,25 +33457,25 @@
         <v>0.0</v>
       </c>
       <c r="H494" t="s" s="2">
-        <v>579</v>
+        <v>2158</v>
       </c>
       <c r="I494" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J494" t="s" s="2">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="K494" t="n" s="2">
-        <v>1168.0</v>
+        <v>1060.0</v>
       </c>
       <c r="L494" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="M494" t="n" s="2">
-        <v>67.0</v>
+        <v>137.0</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>2160</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="495">
@@ -33483,43 +33483,43 @@
         <v>494.0</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="D495" t="n" s="2">
-        <v>350.0</v>
+        <v>359.0</v>
       </c>
       <c r="E495" t="s" s="2">
+        <v>2165</v>
+      </c>
+      <c r="F495" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G495" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="H495" t="s" s="2">
         <v>2163</v>
       </c>
-      <c r="F495" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G495" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H495" t="s" s="2">
-        <v>2161</v>
-      </c>
       <c r="I495" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J495" t="s" s="2">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="K495" t="n" s="2">
-        <v>1060.0</v>
+        <v>991.0</v>
       </c>
       <c r="L495" t="s" s="2">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="M495" t="n" s="2">
-        <v>137.0</v>
+        <v>140.0</v>
       </c>
       <c r="N495" t="s" s="2">
-        <v>2165</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="496">
@@ -33527,43 +33527,43 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="C496" t="s" s="2">
+        <v>2169</v>
+      </c>
+      <c r="D496" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E496" t="s" s="2">
+        <v>2170</v>
+      </c>
+      <c r="F496" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G496" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>2168</v>
+      </c>
+      <c r="I496" t="n" s="2">
+        <v>1478.0</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>2171</v>
+      </c>
+      <c r="K496" t="n" s="2">
+        <v>984.0</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>2168</v>
+      </c>
+      <c r="M496" t="n" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="N496" t="s" s="2">
         <v>2167</v>
-      </c>
-      <c r="D496" t="n" s="2">
-        <v>359.0</v>
-      </c>
-      <c r="E496" t="s" s="2">
-        <v>2168</v>
-      </c>
-      <c r="F496" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G496" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="H496" t="s" s="2">
-        <v>2166</v>
-      </c>
-      <c r="I496" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J496" t="s" s="2">
-        <v>2169</v>
-      </c>
-      <c r="K496" t="n" s="2">
-        <v>991.0</v>
-      </c>
-      <c r="L496" t="s" s="2">
-        <v>2166</v>
-      </c>
-      <c r="M496" t="n" s="2">
-        <v>140.0</v>
-      </c>
-      <c r="N496" t="s" s="2">
-        <v>2170</v>
       </c>
     </row>
     <row r="497">
@@ -33571,43 +33571,43 @@
         <v>496.0</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="C497" t="s" s="2">
+        <v>2173</v>
+      </c>
+      <c r="D497" t="n" s="2">
+        <v>363.0</v>
+      </c>
+      <c r="E497" t="s" s="2">
         <v>2172</v>
       </c>
-      <c r="D497" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E497" t="s" s="2">
-        <v>2173</v>
-      </c>
       <c r="F497" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G497" t="n" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H497" t="s" s="2">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I497" t="n" s="2">
-        <v>1478.0</v>
+        <v>0.0</v>
       </c>
       <c r="J497" t="s" s="2">
         <v>2174</v>
       </c>
       <c r="K497" t="n" s="2">
-        <v>984.0</v>
+        <v>1060.0</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="M497" t="n" s="2">
-        <v>73.0</v>
+        <v>85.0</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>2170</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="498">
@@ -33615,43 +33615,43 @@
         <v>497.0</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="C498" t="s" s="2">
+        <v>2177</v>
+      </c>
+      <c r="D498" t="n" s="2">
+        <v>362.0</v>
+      </c>
+      <c r="E498" t="s" s="2">
         <v>2176</v>
       </c>
-      <c r="D498" t="n" s="2">
-        <v>363.0</v>
-      </c>
-      <c r="E498" t="s" s="2">
-        <v>2175</v>
-      </c>
       <c r="F498" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G498" t="n" s="2">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="H498" t="s" s="2">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="I498" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J498" t="s" s="2">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="K498" t="n" s="2">
-        <v>1060.0</v>
+        <v>1188.0</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="M498" t="n" s="2">
-        <v>85.0</v>
+        <v>10.0</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="499">
@@ -33659,43 +33659,43 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C499" t="s" s="2">
+        <v>2181</v>
+      </c>
+      <c r="D499" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E499" t="s" s="2">
+        <v>2182</v>
+      </c>
+      <c r="F499" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G499" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H499" t="s" s="2">
         <v>2180</v>
       </c>
-      <c r="D499" t="n" s="2">
-        <v>362.0</v>
-      </c>
-      <c r="E499" t="s" s="2">
-        <v>2179</v>
-      </c>
-      <c r="F499" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G499" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H499" t="s" s="2">
-        <v>2179</v>
-      </c>
       <c r="I499" t="n" s="2">
-        <v>0.0</v>
+        <v>1409.0</v>
       </c>
       <c r="J499" t="s" s="2">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="K499" t="n" s="2">
-        <v>1188.0</v>
+        <v>993.0</v>
       </c>
       <c r="L499" t="s" s="2">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="M499" t="n" s="2">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>2182</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="500">
@@ -33703,43 +33703,43 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="D500" t="n" s="2">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="E500" t="s" s="2">
         <v>2185</v>
       </c>
       <c r="F500" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G500" t="n" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H500" t="s" s="2">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="I500" t="n" s="2">
-        <v>1409.0</v>
+        <v>0.0</v>
       </c>
       <c r="J500" t="s" s="2">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="K500" t="n" s="2">
-        <v>993.0</v>
+        <v>921.0</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="M500" t="n" s="2">
-        <v>37.0</v>
+        <v>191.0</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="501">
@@ -33747,40 +33747,40 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="C501" t="s" s="2">
         <v>2189</v>
       </c>
       <c r="D501" t="n" s="2">
-        <v>350.0</v>
+        <v>0.0</v>
       </c>
       <c r="E501" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F501" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G501" t="n" s="2">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="H501" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="I501" t="n" s="2">
-        <v>0.0</v>
+        <v>1408.0</v>
       </c>
       <c r="J501" t="s" s="2">
         <v>2190</v>
       </c>
       <c r="K501" t="n" s="2">
-        <v>921.0</v>
+        <v>1091.0</v>
       </c>
       <c r="L501" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="M501" t="n" s="2">
-        <v>191.0</v>
+        <v>20.0</v>
       </c>
       <c r="N501" t="s" s="2">
         <v>2191</v>
@@ -33812,19 +33812,19 @@
         <v>2192</v>
       </c>
       <c r="I502" t="n" s="2">
-        <v>1408.0</v>
+        <v>1431.0</v>
       </c>
       <c r="J502" t="s" s="2">
         <v>2193</v>
       </c>
       <c r="K502" t="n" s="2">
-        <v>1091.0</v>
+        <v>1002.0</v>
       </c>
       <c r="L502" t="s" s="2">
         <v>2192</v>
       </c>
       <c r="M502" t="n" s="2">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="N502" t="s" s="2">
         <v>2194</v>
@@ -33838,10 +33838,10 @@
         <v>2195</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="D503" t="n" s="2">
-        <v>0.0</v>
+        <v>369.0</v>
       </c>
       <c r="E503" t="s" s="2">
         <v>2195</v>
@@ -33850,28 +33850,28 @@
         <v>0.0</v>
       </c>
       <c r="G503" t="n" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H503" t="s" s="2">
         <v>2195</v>
       </c>
       <c r="I503" t="n" s="2">
-        <v>1431.0</v>
+        <v>0.0</v>
       </c>
       <c r="J503" t="s" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="K503" t="n" s="2">
-        <v>1002.0</v>
+        <v>910.0</v>
       </c>
       <c r="L503" t="s" s="2">
         <v>2195</v>
       </c>
       <c r="M503" t="n" s="2">
-        <v>50.0</v>
+        <v>139.0</v>
       </c>
       <c r="N503" t="s" s="2">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="504">
@@ -33879,43 +33879,43 @@
         <v>503.0</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C504" t="s" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D504" t="n" s="2">
+        <v>355.0</v>
+      </c>
+      <c r="E504" t="s" s="2">
         <v>2199</v>
       </c>
-      <c r="D504" t="n" s="2">
-        <v>369.0</v>
-      </c>
-      <c r="E504" t="s" s="2">
-        <v>2198</v>
-      </c>
       <c r="F504" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G504" t="n" s="2">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="H504" t="s" s="2">
-        <v>2198</v>
+        <v>579</v>
       </c>
       <c r="I504" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J504" t="s" s="2">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="K504" t="n" s="2">
-        <v>910.0</v>
+        <v>1172.0</v>
       </c>
       <c r="L504" t="s" s="2">
-        <v>2198</v>
+        <v>579</v>
       </c>
       <c r="M504" t="n" s="2">
-        <v>139.0</v>
+        <v>0.0</v>
       </c>
       <c r="N504" t="s" s="2">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="505">
@@ -33923,16 +33923,16 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D505" t="n" s="2">
         <v>355.0</v>
       </c>
       <c r="E505" t="s" s="2">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="F505" t="n" s="2">
         <v>0.0</v>
@@ -33941,25 +33941,25 @@
         <v>0.0</v>
       </c>
       <c r="H505" t="s" s="2">
-        <v>579</v>
+        <v>2203</v>
       </c>
       <c r="I505" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J505" t="s" s="2">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="K505" t="n" s="2">
-        <v>1172.0</v>
+        <v>1170.0</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>579</v>
+        <v>2207</v>
       </c>
       <c r="M505" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>2205</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="506">
@@ -33967,16 +33967,16 @@
         <v>505.0</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="D506" t="n" s="2">
-        <v>355.0</v>
+        <v>0.0</v>
       </c>
       <c r="E506" t="s" s="2">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="F506" t="n" s="2">
         <v>0.0</v>
@@ -33985,25 +33985,25 @@
         <v>0.0</v>
       </c>
       <c r="H506" t="s" s="2">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="I506" t="n" s="2">
-        <v>0.0</v>
+        <v>1474.0</v>
       </c>
       <c r="J506" t="s" s="2">
+        <v>2211</v>
+      </c>
+      <c r="K506" t="n" s="2">
+        <v>1005.0</v>
+      </c>
+      <c r="L506" t="s" s="2">
         <v>2209</v>
       </c>
-      <c r="K506" t="n" s="2">
-        <v>1170.0</v>
-      </c>
-      <c r="L506" t="s" s="2">
-        <v>2210</v>
-      </c>
       <c r="M506" t="n" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="N506" t="s" s="2">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="507">
@@ -34011,13 +34011,13 @@
         <v>506.0</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="D507" t="n" s="2">
-        <v>0.0</v>
+        <v>360.0</v>
       </c>
       <c r="E507" t="s" s="2">
         <v>2213</v>
@@ -34026,28 +34026,28 @@
         <v>0.0</v>
       </c>
       <c r="G507" t="n" s="2">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H507" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="I507" t="n" s="2">
-        <v>1474.0</v>
+        <v>0.0</v>
       </c>
       <c r="J507" t="s" s="2">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K507" t="n" s="2">
-        <v>1005.0</v>
+        <v>1073.0</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="M507" t="n" s="2">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="N507" t="s" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="508">
@@ -34055,43 +34055,43 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C508" t="s" s="2">
+        <v>2218</v>
+      </c>
+      <c r="D508" t="n" s="2">
+        <v>357.0</v>
+      </c>
+      <c r="E508" t="s" s="2">
+        <v>2219</v>
+      </c>
+      <c r="F508" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G508" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="H508" t="s" s="2">
         <v>2217</v>
       </c>
-      <c r="D508" t="n" s="2">
-        <v>360.0</v>
-      </c>
-      <c r="E508" t="s" s="2">
-        <v>2216</v>
-      </c>
-      <c r="F508" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G508" t="n" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="H508" t="s" s="2">
-        <v>2216</v>
-      </c>
       <c r="I508" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J508" t="s" s="2">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="K508" t="n" s="2">
-        <v>1073.0</v>
+        <v>1036.0</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M508" t="n" s="2">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="N508" t="s" s="2">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="509">
@@ -34099,25 +34099,25 @@
         <v>508.0</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="D509" t="n" s="2">
-        <v>357.0</v>
+        <v>367.0</v>
       </c>
       <c r="E509" t="s" s="2">
+        <v>2223</v>
+      </c>
+      <c r="F509" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G509" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H509" t="s" s="2">
         <v>2222</v>
-      </c>
-      <c r="F509" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G509" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="H509" t="s" s="2">
-        <v>2220</v>
       </c>
       <c r="I509" t="n" s="2">
         <v>0.0</v>
@@ -34126,13 +34126,13 @@
         <v>2223</v>
       </c>
       <c r="K509" t="n" s="2">
-        <v>1036.0</v>
+        <v>1038.0</v>
       </c>
       <c r="L509" t="s" s="2">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="M509" t="n" s="2">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="N509" t="s" s="2">
         <v>2224</v>
@@ -34146,13 +34146,13 @@
         <v>2225</v>
       </c>
       <c r="C510" t="s" s="2">
+        <v>2226</v>
+      </c>
+      <c r="D510" t="n" s="2">
+        <v>375.0</v>
+      </c>
+      <c r="E510" t="s" s="2">
         <v>2225</v>
-      </c>
-      <c r="D510" t="n" s="2">
-        <v>367.0</v>
-      </c>
-      <c r="E510" t="s" s="2">
-        <v>2226</v>
       </c>
       <c r="F510" t="n" s="2">
         <v>0.0</v>
@@ -34167,19 +34167,19 @@
         <v>0.0</v>
       </c>
       <c r="J510" t="s" s="2">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="K510" t="n" s="2">
-        <v>1038.0</v>
+        <v>1043.0</v>
       </c>
       <c r="L510" t="s" s="2">
         <v>2225</v>
       </c>
       <c r="M510" t="n" s="2">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>2227</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="511">
@@ -34187,43 +34187,43 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C511" t="s" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D511" t="n" s="2">
+        <v>356.0</v>
+      </c>
+      <c r="E511" t="s" s="2">
+        <v>2231</v>
+      </c>
+      <c r="F511" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G511" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H511" t="s" s="2">
         <v>2229</v>
       </c>
-      <c r="D511" t="n" s="2">
-        <v>375.0</v>
-      </c>
-      <c r="E511" t="s" s="2">
-        <v>2228</v>
-      </c>
-      <c r="F511" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G511" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H511" t="s" s="2">
-        <v>2228</v>
-      </c>
       <c r="I511" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J511" t="s" s="2">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="K511" t="n" s="2">
-        <v>1043.0</v>
+        <v>1057.0</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="M511" t="n" s="2">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="N511" t="s" s="2">
-        <v>2231</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="512">
@@ -34231,43 +34231,43 @@
         <v>511.0</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="D512" t="n" s="2">
         <v>356.0</v>
       </c>
       <c r="E512" t="s" s="2">
+        <v>2236</v>
+      </c>
+      <c r="F512" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G512" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>2237</v>
+      </c>
+      <c r="I512" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>2237</v>
+      </c>
+      <c r="K512" t="n" s="2">
+        <v>956.0</v>
+      </c>
+      <c r="L512" t="s" s="2">
         <v>2234</v>
       </c>
-      <c r="F512" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G512" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H512" t="s" s="2">
-        <v>2232</v>
-      </c>
-      <c r="I512" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J512" t="s" s="2">
-        <v>2235</v>
-      </c>
-      <c r="K512" t="n" s="2">
-        <v>1057.0</v>
-      </c>
-      <c r="L512" t="s" s="2">
-        <v>2232</v>
-      </c>
       <c r="M512" t="n" s="2">
-        <v>45.0</v>
+        <v>106.0</v>
       </c>
       <c r="N512" t="s" s="2">
-        <v>2236</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="513">
@@ -34275,43 +34275,43 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="D513" t="n" s="2">
-        <v>356.0</v>
+        <v>358.0</v>
       </c>
       <c r="E513" t="s" s="2">
+        <v>2241</v>
+      </c>
+      <c r="F513" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G513" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>2242</v>
+      </c>
+      <c r="I513" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>2243</v>
+      </c>
+      <c r="K513" t="n" s="2">
+        <v>1087.0</v>
+      </c>
+      <c r="L513" t="s" s="2">
         <v>2239</v>
       </c>
-      <c r="F513" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G513" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H513" t="s" s="2">
-        <v>2240</v>
-      </c>
-      <c r="I513" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J513" t="s" s="2">
-        <v>2240</v>
-      </c>
-      <c r="K513" t="n" s="2">
-        <v>956.0</v>
-      </c>
-      <c r="L513" t="s" s="2">
-        <v>2237</v>
-      </c>
       <c r="M513" t="n" s="2">
-        <v>106.0</v>
+        <v>10.0</v>
       </c>
       <c r="N513" t="s" s="2">
-        <v>2241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="514">
@@ -34319,22 +34319,22 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="D514" t="n" s="2">
-        <v>358.0</v>
+        <v>362.0</v>
       </c>
       <c r="E514" t="s" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="F514" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G514" t="n" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H514" t="s" s="2">
         <v>2245</v>
@@ -34343,19 +34343,19 @@
         <v>0.0</v>
       </c>
       <c r="J514" t="s" s="2">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="K514" t="n" s="2">
-        <v>1087.0</v>
+        <v>956.0</v>
       </c>
       <c r="L514" t="s" s="2">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="M514" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N514" t="s" s="2">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="515">
@@ -34363,43 +34363,43 @@
         <v>514.0</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="D515" t="n" s="2">
-        <v>362.0</v>
+        <v>354.0</v>
       </c>
       <c r="E515" t="s" s="2">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="F515" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G515" t="n" s="2">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="H515" t="s" s="2">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="I515" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J515" t="s" s="2">
+        <v>2253</v>
+      </c>
+      <c r="K515" t="n" s="2">
+        <v>987.0</v>
+      </c>
+      <c r="L515" t="s" s="2">
         <v>2250</v>
       </c>
-      <c r="K515" t="n" s="2">
-        <v>956.0</v>
-      </c>
-      <c r="L515" t="s" s="2">
-        <v>2251</v>
-      </c>
       <c r="M515" t="n" s="2">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="N515" t="s" s="2">
-        <v>2252</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="516">
@@ -34407,43 +34407,43 @@
         <v>515.0</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D516" t="n" s="2">
         <v>354.0</v>
       </c>
       <c r="E516" t="s" s="2">
+        <v>2257</v>
+      </c>
+      <c r="F516" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G516" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>2258</v>
+      </c>
+      <c r="I516" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>2259</v>
+      </c>
+      <c r="K516" t="n" s="2">
+        <v>1068.0</v>
+      </c>
+      <c r="L516" t="s" s="2">
         <v>2255</v>
       </c>
-      <c r="F516" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G516" t="n" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="H516" t="s" s="2">
-        <v>2254</v>
-      </c>
-      <c r="I516" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J516" t="s" s="2">
-        <v>2256</v>
-      </c>
-      <c r="K516" t="n" s="2">
-        <v>987.0</v>
-      </c>
-      <c r="L516" t="s" s="2">
-        <v>2253</v>
-      </c>
       <c r="M516" t="n" s="2">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
       <c r="N516" t="s" s="2">
-        <v>2257</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="517">
@@ -34451,43 +34451,43 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="D517" t="n" s="2">
-        <v>354.0</v>
+        <v>350.0</v>
       </c>
       <c r="E517" t="s" s="2">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="F517" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G517" t="n" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H517" t="s" s="2">
+        <v>2264</v>
+      </c>
+      <c r="I517" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>2265</v>
+      </c>
+      <c r="K517" t="n" s="2">
+        <v>979.0</v>
+      </c>
+      <c r="L517" t="s" s="2">
         <v>2261</v>
       </c>
-      <c r="I517" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J517" t="s" s="2">
-        <v>2262</v>
-      </c>
-      <c r="K517" t="n" s="2">
-        <v>1068.0</v>
-      </c>
-      <c r="L517" t="s" s="2">
-        <v>2258</v>
-      </c>
       <c r="M517" t="n" s="2">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="N517" t="s" s="2">
-        <v>2263</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="518">
@@ -34495,16 +34495,16 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D518" t="n" s="2">
-        <v>350.0</v>
+        <v>373.0</v>
       </c>
       <c r="E518" t="s" s="2">
-        <v>2266</v>
+        <v>579</v>
       </c>
       <c r="F518" t="n" s="2">
         <v>0.0</v>
@@ -34513,25 +34513,25 @@
         <v>0.0</v>
       </c>
       <c r="H518" t="s" s="2">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="I518" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J518" t="s" s="2">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="K518" t="n" s="2">
-        <v>979.0</v>
+        <v>1018.0</v>
       </c>
       <c r="L518" t="s" s="2">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="M518" t="n" s="2">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="N518" t="s" s="2">
-        <v>2269</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="519">
@@ -34539,16 +34539,16 @@
         <v>518.0</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="D519" t="n" s="2">
-        <v>373.0</v>
+        <v>0.0</v>
       </c>
       <c r="E519" t="s" s="2">
-        <v>579</v>
+        <v>2274</v>
       </c>
       <c r="F519" t="n" s="2">
         <v>0.0</v>
@@ -34557,25 +34557,25 @@
         <v>0.0</v>
       </c>
       <c r="H519" t="s" s="2">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="I519" t="n" s="2">
-        <v>0.0</v>
+        <v>1409.0</v>
       </c>
       <c r="J519" t="s" s="2">
+        <v>2275</v>
+      </c>
+      <c r="K519" t="n" s="2">
+        <v>963.0</v>
+      </c>
+      <c r="L519" t="s" s="2">
         <v>2273</v>
       </c>
-      <c r="K519" t="n" s="2">
-        <v>1018.0</v>
-      </c>
-      <c r="L519" t="s" s="2">
-        <v>2274</v>
-      </c>
       <c r="M519" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="520">
@@ -34583,16 +34583,16 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D520" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E520" t="s" s="2">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="F520" t="n" s="2">
         <v>0.0</v>
@@ -34601,25 +34601,25 @@
         <v>0.0</v>
       </c>
       <c r="H520" t="s" s="2">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="I520" t="n" s="2">
-        <v>1409.0</v>
+        <v>1411.0</v>
       </c>
       <c r="J520" t="s" s="2">
         <v>2278</v>
       </c>
       <c r="K520" t="n" s="2">
-        <v>963.0</v>
+        <v>952.0</v>
       </c>
       <c r="L520" t="s" s="2">
-        <v>2276</v>
+        <v>2281</v>
       </c>
       <c r="M520" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N520" t="s" s="2">
-        <v>2279</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="521">
@@ -34627,16 +34627,16 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D521" t="n" s="2">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="E521" t="s" s="2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F521" t="n" s="2">
         <v>0.0</v>
@@ -34648,22 +34648,22 @@
         <v>2283</v>
       </c>
       <c r="I521" t="n" s="2">
-        <v>1411.0</v>
+        <v>0.0</v>
       </c>
       <c r="J521" t="s" s="2">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="K521" t="n" s="2">
-        <v>952.0</v>
+        <v>949.0</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M521" t="n" s="2">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
       <c r="N521" t="s" s="2">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="522">
@@ -34671,43 +34671,43 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C522" t="s" s="2">
         <v>2286</v>
       </c>
       <c r="D522" t="n" s="2">
-        <v>350.0</v>
+        <v>0.0</v>
       </c>
       <c r="E522" t="s" s="2">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="F522" t="n" s="2">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="G522" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="H522" t="s" s="2">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="I522" t="n" s="2">
-        <v>0.0</v>
+        <v>1417.0</v>
       </c>
       <c r="J522" t="s" s="2">
+        <v>2285</v>
+      </c>
+      <c r="K522" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L522" t="s" s="2">
+        <v>2285</v>
+      </c>
+      <c r="M522" t="n" s="2">
+        <v>179.0</v>
+      </c>
+      <c r="N522" t="s" s="2">
         <v>2287</v>
-      </c>
-      <c r="K522" t="n" s="2">
-        <v>949.0</v>
-      </c>
-      <c r="L522" t="s" s="2">
-        <v>2286</v>
-      </c>
-      <c r="M522" t="n" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="N522" t="s" s="2">
-        <v>2285</v>
       </c>
     </row>
     <row r="523">
@@ -34721,25 +34721,25 @@
         <v>2289</v>
       </c>
       <c r="D523" t="n" s="2">
-        <v>0.0</v>
+        <v>640.0</v>
       </c>
       <c r="E523" t="s" s="2">
         <v>2288</v>
       </c>
       <c r="F523" t="n" s="2">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="H523" t="s" s="2">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="I523" t="n" s="2">
-        <v>1417.0</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="s" s="2">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="K523" t="n" s="2">
         <v>0.0</v>
@@ -34748,10 +34748,10 @@
         <v>2288</v>
       </c>
       <c r="M523" t="n" s="2">
-        <v>179.0</v>
+        <v>53.0</v>
       </c>
       <c r="N523" t="s" s="2">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="524">
@@ -34759,16 +34759,16 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D524" t="n" s="2">
-        <v>640.0</v>
+        <v>377.0</v>
       </c>
       <c r="E524" t="s" s="2">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="F524" t="n" s="2">
         <v>0.0</v>
@@ -34783,19 +34783,19 @@
         <v>0.0</v>
       </c>
       <c r="J524" t="s" s="2">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="K524" t="n" s="2">
-        <v>0.0</v>
+        <v>951.0</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>2291</v>
+        <v>579</v>
       </c>
       <c r="M524" t="n" s="2">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="N524" t="s" s="2">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="525">
@@ -34803,43 +34803,43 @@
         <v>524.0</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="D525" t="n" s="2">
-        <v>377.0</v>
+        <v>348.0</v>
       </c>
       <c r="E525" t="s" s="2">
+        <v>2299</v>
+      </c>
+      <c r="F525" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G525" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H525" t="s" s="2">
         <v>2297</v>
       </c>
-      <c r="F525" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G525" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H525" t="s" s="2">
-        <v>2295</v>
-      </c>
       <c r="I525" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J525" t="s" s="2">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="K525" t="n" s="2">
-        <v>951.0</v>
+        <v>1012.0</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>579</v>
+        <v>2297</v>
       </c>
       <c r="M525" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="N525" t="s" s="2">
-        <v>2299</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="526">
@@ -34847,16 +34847,16 @@
         <v>525.0</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D526" t="n" s="2">
-        <v>348.0</v>
+        <v>360.0</v>
       </c>
       <c r="E526" t="s" s="2">
-        <v>2302</v>
+        <v>579</v>
       </c>
       <c r="F526" t="n" s="2">
         <v>0.0</v>
@@ -34865,7 +34865,7 @@
         <v>0.0</v>
       </c>
       <c r="H526" t="s" s="2">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="I526" t="n" s="2">
         <v>0.0</v>
@@ -34874,13 +34874,13 @@
         <v>2303</v>
       </c>
       <c r="K526" t="n" s="2">
-        <v>1012.0</v>
+        <v>975.0</v>
       </c>
       <c r="L526" t="s" s="2">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="M526" t="n" s="2">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="N526" t="s" s="2">
         <v>2304</v>
@@ -34894,40 +34894,40 @@
         <v>2305</v>
       </c>
       <c r="C527" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="D527" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E527" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="F527" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G527" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H527" t="s" s="2">
         <v>2305</v>
       </c>
-      <c r="D527" t="n" s="2">
-        <v>360.0</v>
-      </c>
-      <c r="E527" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="F527" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G527" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H527" t="s" s="2">
-        <v>2306</v>
-      </c>
       <c r="I527" t="n" s="2">
-        <v>0.0</v>
+        <v>1442.0</v>
       </c>
       <c r="J527" t="s" s="2">
         <v>2306</v>
       </c>
       <c r="K527" t="n" s="2">
-        <v>975.0</v>
+        <v>899.0</v>
       </c>
       <c r="L527" t="s" s="2">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="M527" t="n" s="2">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>2307</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="528">
@@ -34935,43 +34935,43 @@
         <v>527.0</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>579</v>
+        <v>2309</v>
       </c>
       <c r="D528" t="n" s="2">
-        <v>0.0</v>
+        <v>351.0</v>
       </c>
       <c r="E528" t="s" s="2">
-        <v>579</v>
+        <v>2310</v>
       </c>
       <c r="F528" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G528" t="n" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H528" t="s" s="2">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="I528" t="n" s="2">
-        <v>1442.0</v>
+        <v>0.0</v>
       </c>
       <c r="J528" t="s" s="2">
+        <v>2312</v>
+      </c>
+      <c r="K528" t="n" s="2">
+        <v>949.0</v>
+      </c>
+      <c r="L528" t="s" s="2">
         <v>2309</v>
       </c>
-      <c r="K528" t="n" s="2">
-        <v>899.0</v>
-      </c>
-      <c r="L528" t="s" s="2">
-        <v>2310</v>
-      </c>
       <c r="M528" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="N528" t="s" s="2">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="529">
@@ -34979,43 +34979,43 @@
         <v>528.0</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="D529" t="n" s="2">
-        <v>351.0</v>
+        <v>654.0</v>
       </c>
       <c r="E529" t="s" s="2">
-        <v>2313</v>
+        <v>579</v>
       </c>
       <c r="F529" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G529" t="n" s="2">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H529" t="s" s="2">
-        <v>2314</v>
+        <v>579</v>
       </c>
       <c r="I529" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J529" t="s" s="2">
-        <v>2315</v>
+        <v>579</v>
       </c>
       <c r="K529" t="n" s="2">
-        <v>949.0</v>
+        <v>0.0</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="M529" t="n" s="2">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="N529" t="s" s="2">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="530">
@@ -35023,43 +35023,43 @@
         <v>529.0</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="C530" t="s" s="2">
+        <v>2319</v>
+      </c>
+      <c r="D530" t="n" s="2">
+        <v>347.0</v>
+      </c>
+      <c r="E530" t="s" s="2">
+        <v>2320</v>
+      </c>
+      <c r="F530" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G530" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H530" t="s" s="2">
+        <v>2320</v>
+      </c>
+      <c r="I530" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J530" t="s" s="2">
+        <v>2320</v>
+      </c>
+      <c r="K530" t="n" s="2">
+        <v>969.0</v>
+      </c>
+      <c r="L530" t="s" s="2">
         <v>2318</v>
       </c>
-      <c r="D530" t="n" s="2">
-        <v>654.0</v>
-      </c>
-      <c r="E530" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="F530" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G530" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H530" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="I530" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J530" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="K530" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L530" t="s" s="2">
-        <v>2319</v>
-      </c>
       <c r="M530" t="n" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="531">
@@ -35067,40 +35067,40 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C531" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="D531" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E531" t="s" s="2">
         <v>2322</v>
       </c>
-      <c r="D531" t="n" s="2">
-        <v>347.0</v>
-      </c>
-      <c r="E531" t="s" s="2">
-        <v>2323</v>
-      </c>
       <c r="F531" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G531" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H531" t="s" s="2">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="I531" t="n" s="2">
-        <v>0.0</v>
+        <v>1350.0</v>
       </c>
       <c r="J531" t="s" s="2">
         <v>2323</v>
       </c>
       <c r="K531" t="n" s="2">
-        <v>969.0</v>
+        <v>870.0</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="M531" t="n" s="2">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="N531" t="s" s="2">
         <v>2324</v>
@@ -35114,7 +35114,7 @@
         <v>2325</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>579</v>
+        <v>2326</v>
       </c>
       <c r="D532" t="n" s="2">
         <v>0.0</v>
@@ -35126,28 +35126,28 @@
         <v>0.0</v>
       </c>
       <c r="G532" t="n" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H532" t="s" s="2">
         <v>2325</v>
       </c>
       <c r="I532" t="n" s="2">
-        <v>1350.0</v>
+        <v>1424.0</v>
       </c>
       <c r="J532" t="s" s="2">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="K532" t="n" s="2">
-        <v>870.0</v>
+        <v>798.0</v>
       </c>
       <c r="L532" t="s" s="2">
         <v>2325</v>
       </c>
       <c r="M532" t="n" s="2">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="533">
@@ -35155,43 +35155,43 @@
         <v>532.0</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D533" t="n" s="2">
-        <v>0.0</v>
+        <v>358.0</v>
       </c>
       <c r="E533" t="s" s="2">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="F533" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G533" t="n" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H533" t="s" s="2">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="I533" t="n" s="2">
-        <v>1424.0</v>
+        <v>0.0</v>
       </c>
       <c r="J533" t="s" s="2">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="K533" t="n" s="2">
-        <v>798.0</v>
+        <v>900.0</v>
       </c>
       <c r="L533" t="s" s="2">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="M533" t="n" s="2">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
       <c r="N533" t="s" s="2">
-        <v>2331</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="534">
@@ -35199,40 +35199,40 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="D534" t="n" s="2">
-        <v>358.0</v>
+        <v>347.0</v>
       </c>
       <c r="E534" t="s" s="2">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="F534" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G534" t="n" s="2">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="H534" t="s" s="2">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="I534" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J534" t="s" s="2">
+        <v>2337</v>
+      </c>
+      <c r="K534" t="n" s="2">
+        <v>821.0</v>
+      </c>
+      <c r="L534" t="s" s="2">
         <v>2336</v>
       </c>
-      <c r="K534" t="n" s="2">
-        <v>900.0</v>
-      </c>
-      <c r="L534" t="s" s="2">
-        <v>2337</v>
-      </c>
       <c r="M534" t="n" s="2">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="N534" t="s" s="2">
         <v>2338</v>
@@ -35246,40 +35246,40 @@
         <v>2339</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="D535" t="n" s="2">
-        <v>347.0</v>
+        <v>377.0</v>
       </c>
       <c r="E535" t="s" s="2">
-        <v>2339</v>
+        <v>579</v>
       </c>
       <c r="F535" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n" s="2">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="s" s="2">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="I535" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J535" t="s" s="2">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="K535" t="n" s="2">
-        <v>821.0</v>
+        <v>682.0</v>
       </c>
       <c r="L535" t="s" s="2">
         <v>2339</v>
       </c>
       <c r="M535" t="n" s="2">
-        <v>20.0</v>
+        <v>124.0</v>
       </c>
       <c r="N535" t="s" s="2">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="536">
@@ -35287,43 +35287,43 @@
         <v>535.0</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C536" t="s" s="2">
+        <v>2344</v>
+      </c>
+      <c r="D536" t="n" s="2">
+        <v>364.0</v>
+      </c>
+      <c r="E536" t="s" s="2">
         <v>2343</v>
       </c>
-      <c r="D536" t="n" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="E536" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="F536" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G536" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="H536" t="s" s="2">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="I536" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J536" t="s" s="2">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="K536" t="n" s="2">
-        <v>682.0</v>
+        <v>838.0</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>2342</v>
+        <v>2347</v>
       </c>
       <c r="M536" t="n" s="2">
-        <v>124.0</v>
+        <v>0.0</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>2341</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="537">
@@ -35331,43 +35331,43 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="D537" t="n" s="2">
-        <v>364.0</v>
+        <v>563.0</v>
       </c>
       <c r="E537" t="s" s="2">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="F537" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G537" t="n" s="2">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="H537" t="s" s="2">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="I537" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J537" t="s" s="2">
+        <v>2352</v>
+      </c>
+      <c r="K537" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L537" t="s" s="2">
         <v>2349</v>
       </c>
-      <c r="K537" t="n" s="2">
-        <v>838.0</v>
-      </c>
-      <c r="L537" t="s" s="2">
-        <v>2350</v>
-      </c>
       <c r="M537" t="n" s="2">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="538">
@@ -35375,22 +35375,22 @@
         <v>537.0</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="D538" t="n" s="2">
-        <v>563.0</v>
+        <v>0.0</v>
       </c>
       <c r="E538" t="s" s="2">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="F538" t="n" s="2">
-        <v>10.0</v>
+        <v>96.0</v>
       </c>
       <c r="G538" t="n" s="2">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="H538" t="s" s="2">
         <v>2354</v>
@@ -35399,19 +35399,19 @@
         <v>0.0</v>
       </c>
       <c r="J538" t="s" s="2">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="K538" t="n" s="2">
-        <v>0.0</v>
+        <v>1169.0</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="M538" t="n" s="2">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="539">
@@ -35419,43 +35419,43 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C539" t="s" s="2">
         <v>2358</v>
       </c>
       <c r="D539" t="n" s="2">
-        <v>0.0</v>
+        <v>604.0</v>
       </c>
       <c r="E539" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="F539" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G539" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H539" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="I539" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J539" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="K539" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L539" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="M539" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N539" t="s" s="2">
         <v>2357</v>
-      </c>
-      <c r="F539" t="n" s="2">
-        <v>96.0</v>
-      </c>
-      <c r="G539" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="H539" t="s" s="2">
-        <v>2357</v>
-      </c>
-      <c r="I539" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J539" t="s" s="2">
-        <v>2359</v>
-      </c>
-      <c r="K539" t="n" s="2">
-        <v>1169.0</v>
-      </c>
-      <c r="L539" t="s" s="2">
-        <v>2357</v>
-      </c>
-      <c r="M539" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>2360</v>
       </c>
     </row>
     <row r="540">
@@ -35463,43 +35463,43 @@
         <v>539.0</v>
       </c>
       <c r="B540" t="s" s="2">
+        <v>2359</v>
+      </c>
+      <c r="C540" t="s" s="2">
+        <v>2359</v>
+      </c>
+      <c r="D540" t="n" s="2">
+        <v>567.0</v>
+      </c>
+      <c r="E540" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="F540" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G540" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H540" t="s" s="2">
+        <v>2359</v>
+      </c>
+      <c r="I540" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J540" t="s" s="2">
+        <v>2360</v>
+      </c>
+      <c r="K540" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L540" t="s" s="2">
+        <v>2359</v>
+      </c>
+      <c r="M540" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="N540" t="s" s="2">
         <v>2361</v>
-      </c>
-      <c r="C540" t="s" s="2">
-        <v>2361</v>
-      </c>
-      <c r="D540" t="n" s="2">
-        <v>604.0</v>
-      </c>
-      <c r="E540" t="s" s="2">
-        <v>2361</v>
-      </c>
-      <c r="F540" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G540" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H540" t="s" s="2">
-        <v>2361</v>
-      </c>
-      <c r="I540" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J540" t="s" s="2">
-        <v>2361</v>
-      </c>
-      <c r="K540" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L540" t="s" s="2">
-        <v>2361</v>
-      </c>
-      <c r="M540" t="n" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>2360</v>
       </c>
     </row>
     <row r="541">
@@ -35513,22 +35513,22 @@
         <v>2362</v>
       </c>
       <c r="D541" t="n" s="2">
-        <v>567.0</v>
+        <v>0.0</v>
       </c>
       <c r="E541" t="s" s="2">
-        <v>579</v>
+        <v>2362</v>
       </c>
       <c r="F541" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G541" t="n" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H541" t="s" s="2">
         <v>2362</v>
       </c>
       <c r="I541" t="n" s="2">
-        <v>0.0</v>
+        <v>1753.0</v>
       </c>
       <c r="J541" t="s" s="2">
         <v>2363</v>
@@ -35540,7 +35540,7 @@
         <v>2362</v>
       </c>
       <c r="M541" t="n" s="2">
-        <v>35.0</v>
+        <v>56.0</v>
       </c>
       <c r="N541" t="s" s="2">
         <v>2364</v>
@@ -35554,40 +35554,40 @@
         <v>2365</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>2365</v>
+        <v>1875</v>
       </c>
       <c r="D542" t="n" s="2">
-        <v>0.0</v>
+        <v>573.0</v>
       </c>
       <c r="E542" t="s" s="2">
-        <v>2365</v>
+        <v>579</v>
       </c>
       <c r="F542" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="s" s="2">
-        <v>2365</v>
+        <v>579</v>
       </c>
       <c r="I542" t="n" s="2">
-        <v>1753.0</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="K542" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L542" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M542" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N542" t="s" s="2">
         <v>2366</v>
-      </c>
-      <c r="K542" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L542" t="s" s="2">
-        <v>2365</v>
-      </c>
-      <c r="M542" t="n" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="N542" t="s" s="2">
-        <v>2367</v>
       </c>
     </row>
     <row r="543">
@@ -35595,43 +35595,43 @@
         <v>542.0</v>
       </c>
       <c r="B543" t="s" s="2">
+        <v>2367</v>
+      </c>
+      <c r="C543" t="s" s="2">
         <v>2368</v>
       </c>
-      <c r="C543" t="s" s="2">
-        <v>1875</v>
-      </c>
       <c r="D543" t="n" s="2">
-        <v>573.0</v>
+        <v>360.0</v>
       </c>
       <c r="E543" t="s" s="2">
-        <v>579</v>
+        <v>2367</v>
       </c>
       <c r="F543" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G543" t="n" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H543" t="s" s="2">
-        <v>579</v>
+        <v>2369</v>
       </c>
       <c r="I543" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J543" t="s" s="2">
-        <v>579</v>
+        <v>2369</v>
       </c>
       <c r="K543" t="n" s="2">
-        <v>0.0</v>
+        <v>654.0</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>579</v>
+        <v>2367</v>
       </c>
       <c r="M543" t="n" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>2369</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="544">
@@ -35639,43 +35639,43 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C544" t="s" s="2">
         <v>2371</v>
       </c>
       <c r="D544" t="n" s="2">
-        <v>360.0</v>
+        <v>0.0</v>
       </c>
       <c r="E544" t="s" s="2">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="F544" t="n" s="2">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="G544" t="n" s="2">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="H544" t="s" s="2">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I544" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J544" t="s" s="2">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="K544" t="n" s="2">
-        <v>654.0</v>
+        <v>1078.0</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="M544" t="n" s="2">
-        <v>15.0</v>
+        <v>78.0</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="545">
@@ -35683,10 +35683,10 @@
         <v>544.0</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="D545" t="n" s="2">
         <v>0.0</v>
@@ -35695,31 +35695,31 @@
         <v>2375</v>
       </c>
       <c r="F545" t="n" s="2">
-        <v>69.0</v>
+        <v>0.0</v>
       </c>
       <c r="G545" t="n" s="2">
-        <v>19.0</v>
+        <v>40.0</v>
       </c>
       <c r="H545" t="s" s="2">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="I545" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J545" t="s" s="2">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="K545" t="n" s="2">
-        <v>1078.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M545" t="n" s="2">
-        <v>78.0</v>
+        <v>470.0</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="546">
@@ -35727,43 +35727,43 @@
         <v>545.0</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="D546" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E546" t="s" s="2">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="F546" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G546" t="n" s="2">
-        <v>40.0</v>
+        <v>263.0</v>
       </c>
       <c r="H546" t="s" s="2">
-        <v>2378</v>
+        <v>579</v>
       </c>
       <c r="I546" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J546" t="s" s="2">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="K546" t="n" s="2">
-        <v>1042.0</v>
+        <v>1287.0</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>2378</v>
+        <v>2383</v>
       </c>
       <c r="M546" t="n" s="2">
-        <v>470.0</v>
+        <v>0.0</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>2381</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="547">
@@ -35771,40 +35771,40 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="D547" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E547" t="s" s="2">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="F547" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G547" t="n" s="2">
-        <v>263.0</v>
+        <v>2.0</v>
       </c>
       <c r="H547" t="s" s="2">
-        <v>579</v>
+        <v>2385</v>
       </c>
       <c r="I547" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J547" t="s" s="2">
+        <v>2386</v>
+      </c>
+      <c r="K547" t="n" s="2">
+        <v>1360.0</v>
+      </c>
+      <c r="L547" t="s" s="2">
         <v>2385</v>
       </c>
-      <c r="K547" t="n" s="2">
-        <v>1287.0</v>
-      </c>
-      <c r="L547" t="s" s="2">
-        <v>2386</v>
-      </c>
       <c r="M547" t="n" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="N547" t="s" s="2">
         <v>2387</v>
@@ -35824,13 +35824,13 @@
         <v>0.0</v>
       </c>
       <c r="E548" t="s" s="2">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="F548" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G548" t="n" s="2">
-        <v>2.0</v>
+        <v>53.0</v>
       </c>
       <c r="H548" t="s" s="2">
         <v>2388</v>
@@ -35839,19 +35839,19 @@
         <v>0.0</v>
       </c>
       <c r="J548" t="s" s="2">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="K548" t="n" s="2">
-        <v>1360.0</v>
+        <v>1248.0</v>
       </c>
       <c r="L548" t="s" s="2">
         <v>2388</v>
       </c>
       <c r="M548" t="n" s="2">
-        <v>13.0</v>
+        <v>200.0</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="549">
@@ -35859,43 +35859,43 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>2391</v>
+        <v>579</v>
       </c>
       <c r="D549" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E549" t="s" s="2">
+        <v>2393</v>
+      </c>
+      <c r="F549" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="G549" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H549" t="s" s="2">
         <v>2392</v>
       </c>
-      <c r="F549" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G549" t="n" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="H549" t="s" s="2">
-        <v>2391</v>
-      </c>
       <c r="I549" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J549" t="s" s="2">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="K549" t="n" s="2">
-        <v>1248.0</v>
+        <v>1006.0</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="M549" t="n" s="2">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="550">
@@ -35903,43 +35903,43 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>579</v>
+        <v>2398</v>
       </c>
       <c r="D550" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E550" t="s" s="2">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="F550" t="n" s="2">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="G550" t="n" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H550" t="s" s="2">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="I550" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J550" t="s" s="2">
+        <v>2399</v>
+      </c>
+      <c r="K550" t="n" s="2">
+        <v>991.0</v>
+      </c>
+      <c r="L550" t="s" s="2">
         <v>2397</v>
       </c>
-      <c r="K550" t="n" s="2">
-        <v>1006.0</v>
-      </c>
-      <c r="L550" t="s" s="2">
-        <v>2398</v>
-      </c>
       <c r="M550" t="n" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="551">
@@ -35947,25 +35947,25 @@
         <v>550.0</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C551" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="D551" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E551" t="s" s="2">
         <v>2401</v>
       </c>
-      <c r="D551" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E551" t="s" s="2">
-        <v>2400</v>
-      </c>
       <c r="F551" t="n" s="2">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="G551" t="n" s="2">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H551" t="s" s="2">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="I551" t="n" s="2">
         <v>0.0</v>
@@ -35974,16 +35974,16 @@
         <v>2402</v>
       </c>
       <c r="K551" t="n" s="2">
-        <v>991.0</v>
+        <v>1467.0</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="M551" t="n" s="2">
-        <v>24.0</v>
+        <v>55.0</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="552">
@@ -35991,40 +35991,40 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>579</v>
+        <v>2405</v>
       </c>
       <c r="D552" t="n" s="2">
-        <v>0.0</v>
+        <v>357.0</v>
       </c>
       <c r="E552" t="s" s="2">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F552" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G552" t="n" s="2">
-        <v>3.0</v>
+        <v>47.0</v>
       </c>
       <c r="H552" t="s" s="2">
+        <v>2406</v>
+      </c>
+      <c r="I552" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J552" t="s" s="2">
+        <v>2406</v>
+      </c>
+      <c r="K552" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L552" t="s" s="2">
         <v>2405</v>
       </c>
-      <c r="I552" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J552" t="s" s="2">
-        <v>2405</v>
-      </c>
-      <c r="K552" t="n" s="2">
-        <v>1467.0</v>
-      </c>
-      <c r="L552" t="s" s="2">
-        <v>2406</v>
-      </c>
       <c r="M552" t="n" s="2">
-        <v>55.0</v>
+        <v>171.0</v>
       </c>
       <c r="N552" t="s" s="2">
         <v>2407</v>
@@ -36038,10 +36038,10 @@
         <v>2408</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D553" t="n" s="2">
-        <v>357.0</v>
+        <v>0.0</v>
       </c>
       <c r="E553" t="s" s="2">
         <v>2408</v>
@@ -36050,28 +36050,28 @@
         <v>0.0</v>
       </c>
       <c r="G553" t="n" s="2">
-        <v>47.0</v>
+        <v>9.0</v>
       </c>
       <c r="H553" t="s" s="2">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="I553" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="J553" t="s" s="2">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K553" t="n" s="2">
-        <v>0.0</v>
+        <v>1298.0</v>
       </c>
       <c r="L553" t="s" s="2">
         <v>2408</v>
       </c>
       <c r="M553" t="n" s="2">
-        <v>171.0</v>
+        <v>122.0</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="554">
@@ -36079,43 +36079,43 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C554" t="s" s="2">
+        <v>2413</v>
+      </c>
+      <c r="D554" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E554" t="s" s="2">
         <v>2412</v>
       </c>
-      <c r="D554" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E554" t="s" s="2">
-        <v>2411</v>
-      </c>
       <c r="F554" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="G554" t="n" s="2">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="H554" t="s" s="2">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="I554" t="n" s="2">
-        <v>0.0</v>
+        <v>1430.0</v>
       </c>
       <c r="J554" t="s" s="2">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="K554" t="n" s="2">
-        <v>1298.0</v>
+        <v>0.0</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="M554" t="n" s="2">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="555">
@@ -36123,43 +36123,43 @@
         <v>554.0</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C555" t="s" s="2">
+        <v>2417</v>
+      </c>
+      <c r="D555" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E555" t="s" s="2">
+        <v>2418</v>
+      </c>
+      <c r="F555" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G555" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H555" t="s" s="2">
+        <v>2419</v>
+      </c>
+      <c r="I555" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J555" t="s" s="2">
+        <v>2420</v>
+      </c>
+      <c r="K555" t="n" s="2">
+        <v>1105.0</v>
+      </c>
+      <c r="L555" t="s" s="2">
         <v>2416</v>
       </c>
-      <c r="D555" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E555" t="s" s="2">
-        <v>2415</v>
-      </c>
-      <c r="F555" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G555" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H555" t="s" s="2">
-        <v>2415</v>
-      </c>
-      <c r="I555" t="n" s="2">
-        <v>1430.0</v>
-      </c>
-      <c r="J555" t="s" s="2">
-        <v>2417</v>
-      </c>
-      <c r="K555" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L555" t="s" s="2">
-        <v>2415</v>
-      </c>
       <c r="M555" t="n" s="2">
-        <v>125.0</v>
+        <v>24.0</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>2418</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="556">
@@ -36167,22 +36167,22 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="D556" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E556" t="s" s="2">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="F556" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="G556" t="n" s="2">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="H556" t="s" s="2">
         <v>2422</v>
@@ -36194,13 +36194,13 @@
         <v>2423</v>
       </c>
       <c r="K556" t="n" s="2">
-        <v>1105.0</v>
+        <v>1080.0</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="M556" t="n" s="2">
-        <v>24.0</v>
+        <v>50.0</v>
       </c>
       <c r="N556" t="s" s="2">
         <v>2424</v>
@@ -55747,7 +55747,7 @@
         <v>1000.0</v>
       </c>
       <c r="B1001" t="s" s="2">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="C1001" t="s" s="2">
         <v>579</v>

--- a/LeaderboardsStorage/CurrentCodeRankingLeaderboard.xlsx
+++ b/LeaderboardsStorage/CurrentCodeRankingLeaderboard.xlsx
@@ -2675,7 +2675,7 @@
     <t>dhansaib6</t>
   </si>
   <si>
-    <t>33.44%</t>
+    <t>33.48%</t>
   </si>
   <si>
     <t>21r01a04k0</t>
@@ -6305,7 +6305,7 @@
     <t>21r01ajyys</t>
   </si>
   <si>
-    <t>16.55%</t>
+    <t>16.59%</t>
   </si>
   <si>
     <t>21r01a04k1</t>
@@ -20556,7 +20556,7 @@
         <v>10.0</v>
       </c>
       <c r="G201" t="n" s="2">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>886</v>
@@ -32656,7 +32656,7 @@
         <v>10.0</v>
       </c>
       <c r="G476" t="n" s="2">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="H476" t="s" s="2">
         <v>2094</v>
